--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Fantasy-Hockey-Projector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FF915D-A679-4354-9269-AE6D3CAAD428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53950DDE-2FA5-4C22-AE95-97D54BE207DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="361">
   <si>
     <t>Player</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>S%</t>
-  </si>
-  <si>
-    <t>FOW%</t>
   </si>
   <si>
     <t>Connor McDavid</t>
@@ -1484,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KO300"/>
+  <dimension ref="A1:KO299"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="BI22" sqref="BI22"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1497,904 +1494,904 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="Q1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="S1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="W1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AH1" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="AI1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AQ1" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AR1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BD1" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="BE1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="BM1" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="BN1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BO1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="BU1" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="BV1" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BW1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="BX1" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="BY1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BZ1" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="CA1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="CB1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="CE1" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="CF1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="CG1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="CI1" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="CJ1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="CK1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CP1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="CQ1" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="CR1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="CS1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CT1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CU1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="CV1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="CW1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="CX1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="CY1" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="CZ1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DA1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="DI1" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="DJ1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DK1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="EM1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="EN1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="EO1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="EP1" s="1" t="s">
+      <c r="EQ1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="EQ1" s="1" t="s">
+      <c r="ER1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="ER1" s="1" t="s">
+      <c r="ES1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="ES1" s="1" t="s">
+      <c r="ET1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="ET1" s="1" t="s">
+      <c r="EU1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="EU1" s="1" t="s">
+      <c r="EV1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="EV1" s="1" t="s">
+      <c r="EW1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="EW1" s="1" t="s">
+      <c r="EX1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="EX1" s="1" t="s">
+      <c r="EY1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="EY1" s="1" t="s">
+      <c r="EZ1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="EZ1" s="1" t="s">
+      <c r="FA1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="FA1" s="1" t="s">
+      <c r="FB1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="FB1" s="1" t="s">
+      <c r="FC1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="FC1" s="1" t="s">
+      <c r="FD1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="FD1" s="1" t="s">
+      <c r="FE1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="FE1" s="1" t="s">
+      <c r="FF1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="FF1" s="1" t="s">
+      <c r="FG1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="FG1" s="1" t="s">
+      <c r="FH1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="FH1" s="1" t="s">
+      <c r="FI1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="FI1" s="1" t="s">
+      <c r="FJ1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="FJ1" s="1" t="s">
+      <c r="FK1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="FK1" s="1" t="s">
+      <c r="FL1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="FL1" s="1" t="s">
+      <c r="FM1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="FM1" s="1" t="s">
+      <c r="FN1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="FN1" s="1" t="s">
+      <c r="FO1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="FO1" s="1" t="s">
+      <c r="FP1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="FP1" s="1" t="s">
+      <c r="FQ1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="FQ1" s="1" t="s">
+      <c r="FR1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="FR1" s="1" t="s">
+      <c r="FS1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="FS1" s="1" t="s">
+      <c r="FT1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="FT1" s="1" t="s">
+      <c r="FU1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="FU1" s="1" t="s">
+      <c r="FV1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="FV1" s="1" t="s">
+      <c r="FW1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="FW1" s="1" t="s">
+      <c r="FX1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="FX1" s="1" t="s">
+      <c r="FY1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="FY1" s="1" t="s">
+      <c r="FZ1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="FZ1" s="1" t="s">
+      <c r="GA1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="GA1" s="1" t="s">
+      <c r="GB1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="GB1" s="1" t="s">
+      <c r="GC1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="GC1" s="1" t="s">
+      <c r="GD1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="GD1" s="1" t="s">
+      <c r="GE1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="GE1" s="1" t="s">
+      <c r="GF1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="GF1" s="1" t="s">
+      <c r="GG1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="GG1" s="1" t="s">
+      <c r="GH1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="GH1" s="1" t="s">
+      <c r="GI1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="GI1" s="1" t="s">
+      <c r="GJ1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="GJ1" s="1" t="s">
+      <c r="GK1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="GK1" s="1" t="s">
+      <c r="GL1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="GL1" s="1" t="s">
+      <c r="GM1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="GM1" s="1" t="s">
+      <c r="GN1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="GN1" s="1" t="s">
+      <c r="GO1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="GO1" s="1" t="s">
+      <c r="GP1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="GP1" s="1" t="s">
+      <c r="GQ1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="GQ1" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="GR1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="GS1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="GS1" s="1" t="s">
+      <c r="GT1" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="GT1" s="2" t="s">
+      <c r="GU1" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="GU1" s="2" t="s">
+      <c r="GV1" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="GV1" s="2" t="s">
+      <c r="GW1" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="GW1" s="2" t="s">
+      <c r="GX1" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="GX1" s="2" t="s">
+      <c r="GY1" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="GY1" s="2" t="s">
+      <c r="GZ1" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="GZ1" s="2" t="s">
+      <c r="HA1" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="HA1" s="2" t="s">
+      <c r="HB1" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="HB1" s="2" t="s">
+      <c r="HC1" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="HC1" s="2" t="s">
+      <c r="HD1" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="HD1" s="2" t="s">
+      <c r="HE1" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="HE1" s="2" t="s">
+      <c r="HF1" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="HF1" s="2" t="s">
+      <c r="HG1" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="HG1" s="2" t="s">
+      <c r="HH1" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="HH1" s="2" t="s">
+      <c r="HI1" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="HI1" s="2" t="s">
+      <c r="HJ1" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="HJ1" s="2" t="s">
+      <c r="HK1" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="HK1" s="2" t="s">
+      <c r="HL1" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="HL1" s="2" t="s">
+      <c r="HM1" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="HM1" s="2" t="s">
+      <c r="HN1" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="HN1" s="2" t="s">
+      <c r="HO1" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="HO1" s="2" t="s">
+      <c r="HP1" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="HP1" s="2" t="s">
+      <c r="HQ1" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="HQ1" s="2" t="s">
+      <c r="HR1" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="HR1" s="2" t="s">
+      <c r="HS1" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="HS1" s="2" t="s">
+      <c r="HT1" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="HT1" s="2" t="s">
+      <c r="HU1" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="HU1" s="2" t="s">
+      <c r="HV1" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="HV1" s="2" t="s">
+      <c r="HW1" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="HW1" s="2" t="s">
+      <c r="HX1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="HX1" s="2" t="s">
+      <c r="HY1" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="HY1" s="2" t="s">
+      <c r="HZ1" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="HZ1" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="IA1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="IB1" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="IB1" s="2" t="s">
+      <c r="IC1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="IC1" s="2" t="s">
+      <c r="ID1" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="ID1" s="2" t="s">
+      <c r="IE1" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="IE1" s="2" t="s">
+      <c r="IF1" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="IF1" s="2" t="s">
+      <c r="IG1" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="IG1" s="2" t="s">
+      <c r="IH1" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="IH1" s="2" t="s">
+      <c r="II1" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="II1" s="2" t="s">
+      <c r="IJ1" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="IJ1" s="2" t="s">
+      <c r="IK1" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="IK1" s="2" t="s">
+      <c r="IL1" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="IL1" s="2" t="s">
+      <c r="IM1" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="IM1" s="2" t="s">
+      <c r="IN1" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="IN1" s="2" t="s">
+      <c r="IO1" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="IO1" s="2" t="s">
+      <c r="IP1" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="IP1" s="2" t="s">
+      <c r="IQ1" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="IQ1" s="2" t="s">
+      <c r="IR1" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="IR1" s="2" t="s">
+      <c r="IS1" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="IS1" s="2" t="s">
+      <c r="IT1" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="IT1" s="2" t="s">
+      <c r="IU1" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="IU1" s="2" t="s">
+      <c r="IV1" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="IV1" s="2" t="s">
+      <c r="IW1" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="IW1" s="2" t="s">
+      <c r="IX1" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="IX1" s="2" t="s">
+      <c r="IY1" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="IY1" s="2" t="s">
+      <c r="IZ1" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="IZ1" s="2" t="s">
+      <c r="JA1" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="JA1" s="2" t="s">
+      <c r="JB1" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="JB1" s="2" t="s">
+      <c r="JC1" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="JC1" s="2" t="s">
+      <c r="JD1" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="JD1" s="2" t="s">
+      <c r="JE1" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="JE1" s="2" t="s">
+      <c r="JF1" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="JF1" s="2" t="s">
+      <c r="JG1" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="JG1" s="2" t="s">
+      <c r="JH1" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="JH1" s="2" t="s">
+      <c r="JI1" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="JI1" s="2" t="s">
+      <c r="JJ1" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="JJ1" s="2" t="s">
+      <c r="JK1" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="JK1" s="2" t="s">
+      <c r="JL1" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="JL1" s="2" t="s">
+      <c r="JM1" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="JM1" s="2" t="s">
+      <c r="JN1" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="JN1" s="2" t="s">
+      <c r="JO1" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="JO1" s="2" t="s">
+      <c r="JP1" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="JP1" s="2" t="s">
+      <c r="JQ1" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="JQ1" s="2" t="s">
+      <c r="JR1" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="JR1" s="2" t="s">
+      <c r="JS1" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="JS1" s="2" t="s">
+      <c r="JT1" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="JT1" s="2" t="s">
+      <c r="JU1" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="JU1" s="2" t="s">
+      <c r="JV1" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="JV1" s="2" t="s">
+      <c r="JW1" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="JW1" s="2" t="s">
+      <c r="JX1" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="JX1" s="2" t="s">
+      <c r="JY1" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="JY1" s="2" t="s">
+      <c r="JZ1" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="JZ1" s="2" t="s">
+      <c r="KA1" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="KA1" s="2" t="s">
+      <c r="KB1" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="KB1" s="2" t="s">
+      <c r="KC1" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="KC1" s="2" t="s">
+      <c r="KD1" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="KD1" s="2" t="s">
+      <c r="KE1" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="KE1" s="2" t="s">
+      <c r="KF1" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="KF1" s="2" t="s">
+      <c r="KG1" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="KG1" s="2" t="s">
-        <v>351</v>
-      </c>
       <c r="KH1" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="KI1" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="KI1" s="2" t="s">
+      <c r="KJ1" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="KJ1" s="2" t="s">
+      <c r="KK1" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="KK1" s="2" t="s">
+      <c r="KL1" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="KL1" s="2" t="s">
+      <c r="KM1" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="KM1" s="2" t="s">
+      <c r="KN1" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="KN1" s="2" t="s">
+      <c r="KO1" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="KO1" s="2" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:301" x14ac:dyDescent="0.35">
@@ -3307,904 +3304,904 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BC3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BD3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BF3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BH3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BI3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BJ3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BK3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BL3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BM3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BN3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BO3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BP3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BQ3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BR3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BS3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BT3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BV3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BW3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BX3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BY3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BZ3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="CA3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="CB3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="CC3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CD3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="CE3" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="CF3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="CG3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CH3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CI3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="CJ3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="CK3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CL3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="CM3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="CN3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CO3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="CP3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="CQ3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CR3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="CS3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CT3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="CU3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CV3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="CW3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CX3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="CY3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CZ3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="DB3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="DC3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="DD3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="DF3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="DG3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="DH3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DI3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="DK3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="DL3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="DM3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="DN3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="DO3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="DP3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="DQ3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DR3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="DS3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="DT3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="DU3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="DV3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="DW3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="DX3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="DY3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="DZ3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="EA3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EB3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="EC3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="ED3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="EE3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EF3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="EG3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="EH3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="EI3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="EJ3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EK3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="EL3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="EM3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="EN3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="EO3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="EP3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="EQ3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="ER3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="ES3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="ET3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="EU3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="EV3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="EW3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="EX3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="EY3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="EZ3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="FA3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="FB3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="FC3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="FD3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="FE3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="FF3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="FG3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="FH3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="FI3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="FJ3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="FK3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="FL3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="FM3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="FN3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="FO3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="FP3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="FQ3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="FR3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="FS3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="FT3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="FU3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="FV3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="FW3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="FX3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="FY3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FZ3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="GA3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="GB3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="GC3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="GD3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="GE3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="GF3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="GG3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="GH3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="GI3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="GJ3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="GK3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="GL3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="GM3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GN3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="GO3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="GP3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="GQ3" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="GR3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="GS3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="GT3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="GU3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="GV3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="GW3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="GX3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="GY3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="GZ3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="HA3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="HB3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="HC3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HD3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="HE3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="HF3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="HG3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HH3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="HI3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="HJ3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="HK3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="HL3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="HM3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="HN3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="HO3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="HP3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="HQ3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="HR3" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="HS3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="HT3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="HU3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="HV3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="HW3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HX3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="HY3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="HZ3" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="IA3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="IB3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="IC3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="ID3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="IE3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="IF3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="IG3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IH3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="II3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IJ3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="IK3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="IL3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="IM3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="IN3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="IO3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="IP3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="IQ3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="IR3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="IS3" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="IT3" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="IU3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="IV3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="IW3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="IX3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="IY3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="IZ3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="JA3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="JB3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JC3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="JD3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="JE3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JF3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="JG3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="JH3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="JI3" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="JJ3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="JK3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="JL3" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="JM3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="JN3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="JO3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="JP3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="JQ3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JR3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="JS3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="JT3" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="JU3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="JV3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="JW3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="JX3" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="JY3" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="JZ3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="KA3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="KB3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="KC3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KD3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="KE3" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="KF3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="KG3" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="KH3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="KI3" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="KJ3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="KK3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="KL3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="KM3" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="KN3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="KO3" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:301" x14ac:dyDescent="0.35">
@@ -4212,904 +4209,904 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BE4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BF4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BG4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BH4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BI4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BJ4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BK4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BL4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BM4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BN4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BO4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BP4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BQ4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BR4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BS4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BT4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BU4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BV4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BW4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BX4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BY4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BZ4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="CA4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="CB4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CC4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CD4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CE4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CF4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="CG4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CH4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CI4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="CJ4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="CK4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CL4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="CM4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="CN4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CO4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CP4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CQ4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CR4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="CS4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CT4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="CU4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CV4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CW4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="CX4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CY4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="CZ4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="DA4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="DB4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="DC4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="DD4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="DE4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="DF4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="DG4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="DH4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="DI4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="DK4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="DL4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="DM4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="DN4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="DO4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="DP4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="DQ4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="DR4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="DS4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="DT4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="DU4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="DV4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="DW4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="DX4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="DY4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="DZ4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="EA4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="EB4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="EC4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="ED4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="EE4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="EF4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="EG4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="EH4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="EI4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="EJ4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="EK4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="EL4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="EM4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="EN4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="EO4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="EP4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="EQ4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="ER4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="ES4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="ET4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="EU4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="EV4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="EW4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="EX4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="EY4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="EZ4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="FA4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="FB4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="FC4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="FD4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="FE4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="FF4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="FG4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="FH4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="FI4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="FJ4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="FK4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="FL4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="FM4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="FN4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="FO4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="FP4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="FQ4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="FR4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="FS4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="FT4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="FU4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="FV4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="FW4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="FX4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="FY4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="FZ4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="GA4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="GB4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="GC4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="GD4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="GE4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="GF4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="GG4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="GH4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="GI4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="GJ4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="GK4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="GL4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="GM4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="GN4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="GO4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="GP4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="GQ4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="GR4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="GS4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="GT4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="GU4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="GV4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="GW4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="GX4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="GY4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="GZ4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="HA4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="HB4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="HC4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="HD4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="HE4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="HF4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="HG4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="HH4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="HI4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="HJ4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="HK4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="HL4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="HM4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="HN4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="HO4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="HP4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="HQ4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="HR4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="HS4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="HT4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="HU4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="HV4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="HW4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="HX4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="HY4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="HZ4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="IA4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="IB4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="IC4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="ID4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="IE4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="IF4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="IG4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="IH4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="II4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="IJ4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="IK4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="IL4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="IM4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="IN4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="IO4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="IP4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="IQ4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="IR4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="IS4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="IT4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="IU4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="IV4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="IW4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="IX4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="IY4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="IZ4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="JA4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="JB4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="JC4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="JD4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="JE4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="JF4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="JG4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="JH4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="JI4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="JJ4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="JK4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="JL4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="JM4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="JN4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="JO4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="JP4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="JQ4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="JR4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="JS4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="JT4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="JU4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="JV4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="JW4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="JX4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="JY4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="JZ4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="KA4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="KB4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="KC4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="KD4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="KE4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="KF4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="KG4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="KH4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="KI4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="KJ4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="KK4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="KL4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="KM4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="KN4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="KO4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:301" x14ac:dyDescent="0.35">
@@ -5117,904 +5114,904 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="N5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="S5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="V5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="AE5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG5" s="2" t="s">
+      <c r="AK5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AM5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AI5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="AN5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AZ5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BH5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="BA5" s="2" t="s">
+      <c r="BI5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="BB5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BC5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BD5" s="2" t="s">
+      <c r="BK5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BL5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BM5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BN5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BO5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="BE5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="BF5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="BG5" s="2" t="s">
+      <c r="BQ5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BR5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BS5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="BH5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BI5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BJ5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BK5" s="2" t="s">
+      <c r="BU5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BV5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="BL5" s="2" t="s">
+      <c r="BW5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="BM5" s="2" t="s">
+      <c r="BX5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="BN5" s="2" t="s">
+      <c r="BY5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="BO5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="BP5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BQ5" s="2" t="s">
+      <c r="BZ5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="BR5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BS5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BT5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BU5" s="2" t="s">
+      <c r="CA5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="CB5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="CC5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="CD5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="BV5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BW5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BX5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BY5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BZ5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="CA5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="CB5" s="2" t="s">
+      <c r="CE5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="CC5" s="2" t="s">
+      <c r="CF5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="CD5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="CE5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="CF5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="CG5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="CH5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="CI5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="CJ5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="CK5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="CL5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="CM5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="CN5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="CN5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="CO5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="CP5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="CQ5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="CR5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="CR5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="CS5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="CT5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="CU5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="CT5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="CU5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="CV5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="CW5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="CX5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="CY5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="CZ5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DA5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DB5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="DD5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="DE5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="DF5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DG5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="DA5" s="1" t="s">
+      <c r="DH5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="DB5" s="1" t="s">
+      <c r="DI5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="DJ5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="DK5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="DL5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="DC5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="DD5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="DE5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="DF5" s="1" t="s">
+      <c r="DM5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="DG5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="DH5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="DI5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="DJ5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="DK5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="DL5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="DM5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="DN5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="DO5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="DP5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="DQ5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="DR5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="DS5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DT5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="DU5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="DT5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="DU5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="DV5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DW5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="DX5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DY5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="DZ5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="EA5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="EB5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="EC5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="ED5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="DW5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="DX5" s="1" t="s">
+      <c r="EE5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="EF5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="EG5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="EH5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="DY5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="DZ5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="EA5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="EB5" s="1" t="s">
+      <c r="EI5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="EJ5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="EK5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="EL5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="EM5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="EN5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="EC5" s="1" t="s">
+      <c r="EO5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="EP5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="EQ5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="ER5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="ES5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="ED5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="EE5" s="1" t="s">
+      <c r="ET5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="EU5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="EF5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="EG5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="EH5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="EI5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="EJ5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="EK5" s="1" t="s">
+      <c r="EV5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="EW5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="EL5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="EM5" s="1" t="s">
+      <c r="EX5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="EN5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="EO5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="EP5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="EQ5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="ER5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="ES5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="ET5" s="1" t="s">
+      <c r="EY5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="EU5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="EV5" s="1" t="s">
+      <c r="EZ5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="FA5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="EW5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="EX5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="EY5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="EZ5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="FA5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="FB5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="FC5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="FC5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="FD5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="FE5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="FF5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="FF5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="FG5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="FH5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="FI5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="FJ5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="FK5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="FL5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="FM5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="FN5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="FO5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="FP5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="FQ5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="FR5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="FS5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="FT5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="FU5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="FV5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="FW5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="FX5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="FY5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="FZ5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="GA5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="GB5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="GC5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="GD5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="GE5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="GF5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="GG5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="GH5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="GI5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="GJ5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="GK5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="GL5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="GM5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="GN5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="GO5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="GM5" s="1" t="s">
+      <c r="GP5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="GN5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="GO5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="GP5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="GQ5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="GR5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="GS5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="GT5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="GU5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="GV5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="GW5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="GX5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="GY5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="GY5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="GZ5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="HA5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="HB5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="HC5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="HD5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="HE5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="HF5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="HG5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="HH5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="HI5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="HJ5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="HK5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="HL5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="HA5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="HB5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="HC5" s="2" t="s">
+      <c r="HM5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="HN5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="HO5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="HP5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="HQ5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="HD5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="HE5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="HF5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="HG5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="HH5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="HI5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="HJ5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="HK5" s="2" t="s">
+      <c r="HR5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="HS5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="HT5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="HU5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="HL5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="HM5" s="2" t="s">
+      <c r="HV5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="HW5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="HX5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="HY5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="HZ5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="IA5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="HN5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="HO5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="HP5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="HQ5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="HR5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="HS5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="HT5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="HU5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="HV5" s="2" t="s">
+      <c r="IB5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="IC5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="ID5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="HW5" s="2" t="s">
+      <c r="IE5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="IF5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="HX5" s="2" t="s">
+      <c r="IG5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="IH5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="II5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="IJ5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="HY5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="HZ5" s="2" t="s">
+      <c r="IK5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="IL5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="IM5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="IN5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="IA5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="IB5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="IC5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="ID5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="IE5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="IF5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="IG5" s="2" t="s">
+      <c r="IO5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="IH5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="II5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="IJ5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="IK5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="IL5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="IM5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="IN5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="IO5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="IP5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="IQ5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="IQ5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="IR5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="IS5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="IT5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="IT5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="IU5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="IV5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="IW5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="IX5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="IY5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="IZ5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="JA5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="IX5" s="2" t="s">
+      <c r="JB5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="JC5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="IY5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="IZ5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="JA5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="JB5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="JC5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="JD5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="JE5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="JF5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="JG5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="JF5" s="2" t="s">
+      <c r="JH5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="JG5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="JH5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="JI5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="JJ5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="JK5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="JL5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="JM5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="JN5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="JK5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="JL5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="JM5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="JN5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="JO5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="JP5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="JQ5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="JQ5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="JR5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="JS5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="JT5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="JU5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="JV5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="JW5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="JX5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="JV5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="JW5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="JX5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="JY5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="JZ5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="KA5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="KB5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="KC5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="KD5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="KE5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="KC5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="KD5" s="2" t="s">
+      <c r="KF5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="KE5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="KF5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="KG5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="KH5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="KI5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="KH5" s="2" t="s">
+      <c r="KJ5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="KK5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="KL5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="KI5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="KJ5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="KK5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="KL5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="KM5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="KN5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="KO5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:301" x14ac:dyDescent="0.35">
@@ -20497,910 +20494,30 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="22" spans="1:301" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>47</v>
-      </c>
-      <c r="C22" s="2">
-        <v>49.9</v>
-      </c>
-      <c r="D22" s="2">
-        <v>42.6</v>
-      </c>
-      <c r="E22" s="2">
-        <v>30.8</v>
-      </c>
-      <c r="F22" s="2">
-        <v>50</v>
-      </c>
-      <c r="G22" s="2">
-        <v>41</v>
-      </c>
-      <c r="H22" s="2">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="I22" s="2">
-        <v>46.6</v>
-      </c>
-      <c r="J22" s="2">
-        <v>25</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>55.4</v>
-      </c>
-      <c r="M22" s="2">
-        <v>46.9</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2">
-        <v>53.7</v>
-      </c>
-      <c r="P22" s="2">
-        <v>44.9</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>100</v>
-      </c>
-      <c r="R22" s="2">
-        <v>50.8</v>
-      </c>
-      <c r="S22" s="2">
-        <v>50</v>
-      </c>
-      <c r="T22" s="2">
-        <v>20</v>
-      </c>
-      <c r="U22" s="2">
-        <v>55.7</v>
-      </c>
-      <c r="V22" s="2">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2">
-        <v>44.1</v>
-      </c>
-      <c r="X22" s="2">
-        <v>43.4</v>
-      </c>
-      <c r="Y22" s="2">
-        <v>28.6</v>
-      </c>
-      <c r="Z22" s="2">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="AA22" s="2">
-        <v>59.3</v>
-      </c>
-      <c r="AB22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="2">
-        <v>37.5</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>56.5</v>
-      </c>
-      <c r="AE22" s="2">
-        <v>50.8</v>
-      </c>
-      <c r="AF22" s="2">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="AG22" s="2">
-        <v>47.8</v>
-      </c>
-      <c r="AH22" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI22" s="2">
-        <v>48.8</v>
-      </c>
-      <c r="AJ22" s="2">
-        <v>55.5</v>
-      </c>
-      <c r="AK22" s="2">
-        <v>34.5</v>
-      </c>
-      <c r="AL22" s="2">
-        <v>58.3</v>
-      </c>
-      <c r="AM22" s="2">
-        <v>48.8</v>
-      </c>
-      <c r="AN22" s="2">
-        <v>56.9</v>
-      </c>
-      <c r="AO22" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP22" s="2">
-        <v>49.8</v>
-      </c>
-      <c r="AQ22" s="2">
-        <v>41.9</v>
-      </c>
-      <c r="AR22" s="2">
-        <v>44.3</v>
-      </c>
-      <c r="AS22" s="2">
-        <v>56.6</v>
-      </c>
-      <c r="AT22" s="2">
-        <v>49.8</v>
-      </c>
-      <c r="AU22" s="2">
-        <v>58.3</v>
-      </c>
-      <c r="AV22" s="2">
-        <v>54.8</v>
-      </c>
-      <c r="AW22" s="2">
-        <v>49.2</v>
-      </c>
-      <c r="AX22" s="2">
-        <v>36.4</v>
-      </c>
-      <c r="AY22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="2">
-        <v>37.5</v>
-      </c>
-      <c r="BA22" s="2">
-        <v>38.9</v>
-      </c>
-      <c r="BB22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD22" s="2">
-        <v>41.5</v>
-      </c>
-      <c r="BE22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF22" s="2">
-        <v>22.2</v>
-      </c>
-      <c r="BG22" s="2">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="BH22" s="2">
-        <v>48.8</v>
-      </c>
-      <c r="BI22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ22" s="2">
-        <v>51</v>
-      </c>
-      <c r="BK22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL22" s="2">
-        <v>46.1</v>
-      </c>
-      <c r="BM22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN22" s="2">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="BO22" s="2">
-        <v>31.6</v>
-      </c>
-      <c r="BP22" s="2">
-        <v>50.8</v>
-      </c>
-      <c r="BQ22" s="2">
-        <v>15.4</v>
-      </c>
-      <c r="BR22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BS22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT22" s="2">
-        <v>48.6</v>
-      </c>
-      <c r="BU22" s="2">
-        <v>66.7</v>
-      </c>
-      <c r="BV22" s="2">
-        <v>49.4</v>
-      </c>
-      <c r="BW22" s="2">
-        <v>52.5</v>
-      </c>
-      <c r="BX22" s="2">
-        <v>43.8</v>
-      </c>
-      <c r="BY22" s="2">
-        <v>55.1</v>
-      </c>
-      <c r="BZ22" s="2">
-        <v>59</v>
-      </c>
-      <c r="CA22" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB22" s="2">
-        <v>54.9</v>
-      </c>
-      <c r="CC22" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD22" s="2">
-        <v>54.9</v>
-      </c>
-      <c r="CE22" s="2">
-        <v>46</v>
-      </c>
-      <c r="CF22" s="2">
-        <v>59.7</v>
-      </c>
-      <c r="CG22" s="2">
-        <v>52.3</v>
-      </c>
-      <c r="CH22" s="2">
-        <v>0</v>
-      </c>
-      <c r="CI22" s="2">
-        <v>39.5</v>
-      </c>
-      <c r="CJ22" s="2">
-        <v>48.2</v>
-      </c>
-      <c r="CK22" s="2">
-        <v>56.5</v>
-      </c>
-      <c r="CL22" s="2">
-        <v>52.1</v>
-      </c>
-      <c r="CM22" s="2">
-        <v>37.5</v>
-      </c>
-      <c r="CN22" s="2">
-        <v>46.8</v>
-      </c>
-      <c r="CO22" s="2">
-        <v>51.2</v>
-      </c>
-      <c r="CP22" s="2">
-        <v>0</v>
-      </c>
-      <c r="CQ22" s="2">
-        <v>50</v>
-      </c>
-      <c r="CR22" s="2">
-        <v>43.8</v>
-      </c>
-      <c r="CS22" s="2">
-        <v>45.5</v>
-      </c>
-      <c r="CT22" s="2">
-        <v>35.9</v>
-      </c>
-      <c r="CU22" s="2">
-        <v>51.1</v>
-      </c>
-      <c r="CV22" s="2">
-        <v>48.2</v>
-      </c>
-      <c r="CW22" s="2">
-        <v>0</v>
-      </c>
-      <c r="CX22" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="CY22" s="1">
-        <v>50.4</v>
-      </c>
-      <c r="CZ22" s="1">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="DA22" s="1">
-        <v>45.7</v>
-      </c>
-      <c r="DB22" s="1">
-        <v>0</v>
-      </c>
-      <c r="DC22" s="1">
-        <v>45.8</v>
-      </c>
-      <c r="DD22" s="1">
-        <v>0</v>
-      </c>
-      <c r="DE22" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF22" s="1">
-        <v>55.8</v>
-      </c>
-      <c r="DG22" s="1">
-        <v>52.9</v>
-      </c>
-      <c r="DH22" s="1">
-        <v>57</v>
-      </c>
-      <c r="DI22" s="1">
-        <v>37</v>
-      </c>
-      <c r="DJ22" s="1">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="DK22" s="1">
-        <v>16.7</v>
-      </c>
-      <c r="DL22" s="1">
-        <v>54.5</v>
-      </c>
-      <c r="DM22" s="1">
-        <v>50</v>
-      </c>
-      <c r="DN22" s="1">
-        <v>0</v>
-      </c>
-      <c r="DO22" s="1">
-        <v>46.4</v>
-      </c>
-      <c r="DP22" s="1">
-        <v>0</v>
-      </c>
-      <c r="DQ22" s="1">
-        <v>0</v>
-      </c>
-      <c r="DR22" s="1">
-        <v>56.2</v>
-      </c>
-      <c r="DS22" s="1">
-        <v>46.7</v>
-      </c>
-      <c r="DT22" s="1">
-        <v>51.7</v>
-      </c>
-      <c r="DU22" s="1">
-        <v>44.9</v>
-      </c>
-      <c r="DV22" s="1">
-        <v>46.3</v>
-      </c>
-      <c r="DW22" s="1">
-        <v>40</v>
-      </c>
-      <c r="DX22" s="1">
-        <v>38.1</v>
-      </c>
-      <c r="DY22" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ22" s="1">
-        <v>22.9</v>
-      </c>
-      <c r="EA22" s="1">
-        <v>46.7</v>
-      </c>
-      <c r="EB22" s="1">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="EC22" s="1">
-        <v>80</v>
-      </c>
-      <c r="ED22" s="1">
-        <v>53.2</v>
-      </c>
-      <c r="EE22" s="1">
-        <v>30.8</v>
-      </c>
-      <c r="EF22" s="1">
-        <v>25</v>
-      </c>
-      <c r="EG22" s="1">
-        <v>30</v>
-      </c>
-      <c r="EH22" s="1">
-        <v>47.3</v>
-      </c>
-      <c r="EI22" s="1">
-        <v>28.6</v>
-      </c>
-      <c r="EJ22" s="1">
-        <v>0</v>
-      </c>
-      <c r="EK22" s="1">
-        <v>85.7</v>
-      </c>
-      <c r="EL22" s="1">
-        <v>13.3</v>
-      </c>
-      <c r="EM22" s="1">
-        <v>0</v>
-      </c>
-      <c r="EN22" s="1">
-        <v>54.3</v>
-      </c>
-      <c r="EO22" s="1">
-        <v>0</v>
-      </c>
-      <c r="EP22" s="1">
-        <v>0</v>
-      </c>
-      <c r="EQ22" s="1">
-        <v>0</v>
-      </c>
-      <c r="ER22" s="1">
-        <v>0</v>
-      </c>
-      <c r="ES22" s="1">
-        <v>30.5</v>
-      </c>
-      <c r="ET22" s="1">
-        <v>46.3</v>
-      </c>
-      <c r="EU22" s="1">
-        <v>48.2</v>
-      </c>
-      <c r="EV22" s="1">
-        <v>31.6</v>
-      </c>
-      <c r="EW22" s="1">
-        <v>45.4</v>
-      </c>
-      <c r="EX22" s="1">
-        <v>18.2</v>
-      </c>
-      <c r="EY22" s="1">
-        <v>43.4</v>
-      </c>
-      <c r="EZ22" s="1">
-        <v>11.1</v>
-      </c>
-      <c r="FA22" s="1">
-        <v>53.9</v>
-      </c>
-      <c r="FB22" s="1">
-        <v>58.8</v>
-      </c>
-      <c r="FC22" s="1">
-        <v>53.1</v>
-      </c>
-      <c r="FD22" s="1">
-        <v>51.6</v>
-      </c>
-      <c r="FE22" s="1">
-        <v>22.2</v>
-      </c>
-      <c r="FF22" s="1">
-        <v>49.5</v>
-      </c>
-      <c r="FG22" s="1">
-        <v>47.1</v>
-      </c>
-      <c r="FH22" s="1">
-        <v>42.8</v>
-      </c>
-      <c r="FI22" s="1">
-        <v>32</v>
-      </c>
-      <c r="FJ22" s="1">
-        <v>0</v>
-      </c>
-      <c r="FK22" s="1">
-        <v>0</v>
-      </c>
-      <c r="FL22" s="1">
-        <v>0</v>
-      </c>
-      <c r="FM22" s="1">
-        <v>0</v>
-      </c>
-      <c r="FN22" s="1">
-        <v>0</v>
-      </c>
-      <c r="FO22" s="1">
-        <v>0</v>
-      </c>
-      <c r="FP22" s="1">
-        <v>0</v>
-      </c>
-      <c r="FQ22" s="1">
-        <v>53.8</v>
-      </c>
-      <c r="FR22" s="1">
-        <v>58.3</v>
-      </c>
-      <c r="FS22" s="1">
-        <v>48.2</v>
-      </c>
-      <c r="FT22" s="1">
-        <v>50</v>
-      </c>
-      <c r="FU22" s="1">
-        <v>0</v>
-      </c>
-      <c r="FV22" s="1">
-        <v>22.2</v>
-      </c>
-      <c r="FW22" s="1">
-        <v>0</v>
-      </c>
-      <c r="FX22" s="1">
-        <v>0</v>
-      </c>
-      <c r="FY22" s="1">
-        <v>0</v>
-      </c>
-      <c r="FZ22" s="1">
-        <v>55.2</v>
-      </c>
-      <c r="GA22" s="1">
-        <v>54.2</v>
-      </c>
-      <c r="GB22" s="1">
-        <v>29.4</v>
-      </c>
-      <c r="GC22" s="1">
-        <v>25</v>
-      </c>
-      <c r="GD22" s="1">
-        <v>51.3</v>
-      </c>
-      <c r="GE22" s="1">
-        <v>0</v>
-      </c>
-      <c r="GF22" s="1">
-        <v>0</v>
-      </c>
-      <c r="GG22" s="1">
-        <v>52.5</v>
-      </c>
-      <c r="GH22" s="1">
-        <v>54.7</v>
-      </c>
-      <c r="GI22" s="1">
-        <v>0</v>
-      </c>
-      <c r="GJ22" s="1">
-        <v>0</v>
-      </c>
-      <c r="GK22" s="1">
-        <v>0</v>
-      </c>
-      <c r="GL22" s="1">
-        <v>47.2</v>
-      </c>
-      <c r="GM22" s="1">
-        <v>39.1</v>
-      </c>
-      <c r="GN22" s="1">
-        <v>40</v>
-      </c>
-      <c r="GO22" s="1">
-        <v>44.8</v>
-      </c>
-      <c r="GP22" s="1">
-        <v>25</v>
-      </c>
-      <c r="GQ22" s="1">
-        <v>30.6</v>
-      </c>
-      <c r="GR22" s="1">
-        <v>54.7</v>
-      </c>
-      <c r="GS22" s="1">
-        <v>58.3</v>
-      </c>
-      <c r="GT22" s="2">
-        <v>0</v>
-      </c>
-      <c r="GU22" s="2">
-        <v>0</v>
-      </c>
-      <c r="GV22" s="2">
-        <v>0</v>
-      </c>
-      <c r="GW22" s="2">
-        <v>51.1</v>
-      </c>
-      <c r="GX22" s="2">
-        <v>58.3</v>
-      </c>
-      <c r="GY22" s="2">
-        <v>50</v>
-      </c>
-      <c r="GZ22" s="2">
-        <v>47.1</v>
-      </c>
-      <c r="HA22" s="2">
-        <v>20</v>
-      </c>
-      <c r="HB22" s="2">
-        <v>75</v>
-      </c>
-      <c r="HC22" s="2">
-        <v>47.3</v>
-      </c>
-      <c r="HD22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HE22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HF22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HG22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HH22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HI22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HJ22" s="2">
-        <v>50</v>
-      </c>
-      <c r="HK22" s="2">
-        <v>46.7</v>
-      </c>
-      <c r="HL22" s="2">
-        <v>50.7</v>
-      </c>
-      <c r="HM22" s="2">
-        <v>25</v>
-      </c>
-      <c r="HN22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HO22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HP22" s="2">
-        <v>25</v>
-      </c>
-      <c r="HQ22" s="2">
-        <v>46.3</v>
-      </c>
-      <c r="HR22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HS22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HT22" s="2">
-        <v>0</v>
-      </c>
-      <c r="HU22" s="2">
-        <v>49.6</v>
-      </c>
-      <c r="HV22" s="2">
-        <v>43.8</v>
-      </c>
-      <c r="HW22" s="2">
-        <v>54.4</v>
-      </c>
-      <c r="HX22" s="2">
-        <v>44.4</v>
-      </c>
-      <c r="HY22" s="2">
-        <v>43.8</v>
-      </c>
-      <c r="HZ22" s="2">
-        <v>48.7</v>
-      </c>
-      <c r="IA22" s="2">
-        <v>40.6</v>
-      </c>
-      <c r="IB22" s="2">
-        <v>27.8</v>
-      </c>
-      <c r="IC22" s="2">
-        <v>51</v>
-      </c>
-      <c r="ID22" s="2">
-        <v>47.8</v>
-      </c>
-      <c r="IE22" s="2">
-        <v>0</v>
-      </c>
-      <c r="IF22" s="2">
-        <v>40</v>
-      </c>
-      <c r="IG22" s="2">
-        <v>38.4</v>
-      </c>
-      <c r="IH22" s="2">
-        <v>0</v>
-      </c>
-      <c r="II22" s="2">
-        <v>0</v>
-      </c>
-      <c r="IJ22" s="2">
-        <v>44.6</v>
-      </c>
-      <c r="IK22" s="2">
-        <v>0</v>
-      </c>
-      <c r="IL22" s="2">
-        <v>0</v>
-      </c>
-      <c r="IM22" s="2">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="IN22" s="2">
-        <v>44.2</v>
-      </c>
-      <c r="IO22" s="2">
-        <v>41.9</v>
-      </c>
-      <c r="IP22" s="2">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="IQ22" s="2">
-        <v>47.1</v>
-      </c>
-      <c r="IR22" s="2">
-        <v>36.6</v>
-      </c>
-      <c r="IS22" s="2">
-        <v>46.4</v>
-      </c>
-      <c r="IT22" s="2">
-        <v>47.2</v>
-      </c>
-      <c r="IU22" s="2">
-        <v>0</v>
-      </c>
-      <c r="IV22" s="2">
-        <v>0</v>
-      </c>
-      <c r="IW22" s="2">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="IX22" s="2">
-        <v>56</v>
-      </c>
-      <c r="IY22" s="2">
-        <v>0</v>
-      </c>
-      <c r="IZ22" s="2">
-        <v>0</v>
-      </c>
-      <c r="JA22" s="2">
-        <v>52.6</v>
-      </c>
-      <c r="JB22" s="2">
-        <v>0</v>
-      </c>
-      <c r="JC22" s="2">
-        <v>53.7</v>
-      </c>
-      <c r="JD22" s="2">
-        <v>47.5</v>
-      </c>
-      <c r="JE22" s="2">
-        <v>40</v>
-      </c>
-      <c r="JF22" s="2">
-        <v>58.8</v>
-      </c>
-      <c r="JG22" s="2">
-        <v>49.5</v>
-      </c>
-      <c r="JH22" s="2">
-        <v>56.4</v>
-      </c>
-      <c r="JI22" s="2">
-        <v>52.6</v>
-      </c>
-      <c r="JJ22" s="2">
-        <v>49.2</v>
-      </c>
-      <c r="JK22" s="2">
-        <v>0</v>
-      </c>
-      <c r="JL22" s="2">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="JM22" s="2">
-        <v>0</v>
-      </c>
-      <c r="JN22" s="2">
-        <v>46.3</v>
-      </c>
-      <c r="JO22" s="2">
-        <v>0</v>
-      </c>
-      <c r="JP22" s="2">
-        <v>40.6</v>
-      </c>
-      <c r="JQ22" s="2">
-        <v>50.8</v>
-      </c>
-      <c r="JR22" s="2">
-        <v>54.9</v>
-      </c>
-      <c r="JS22" s="2">
-        <v>54.2</v>
-      </c>
-      <c r="JT22" s="2">
-        <v>21.7</v>
-      </c>
-      <c r="JU22" s="2">
-        <v>55</v>
-      </c>
-      <c r="JV22" s="2">
-        <v>0</v>
-      </c>
-      <c r="JW22" s="2">
-        <v>0</v>
-      </c>
-      <c r="JX22" s="2">
-        <v>44</v>
-      </c>
-      <c r="JY22" s="2">
-        <v>0</v>
-      </c>
-      <c r="JZ22" s="2">
-        <v>0</v>
-      </c>
-      <c r="KA22" s="2">
-        <v>37.5</v>
-      </c>
-      <c r="KB22" s="2">
-        <v>46</v>
-      </c>
-      <c r="KC22" s="2">
-        <v>50</v>
-      </c>
-      <c r="KD22" s="2">
-        <v>59.5</v>
-      </c>
-      <c r="KE22" s="2">
-        <v>53.8</v>
-      </c>
-      <c r="KF22" s="2">
-        <v>46.4</v>
-      </c>
-      <c r="KG22" s="2">
-        <v>25</v>
-      </c>
-      <c r="KH22" s="2">
-        <v>23.5</v>
-      </c>
-      <c r="KI22" s="2">
-        <v>37.1</v>
-      </c>
-      <c r="KJ22" s="2">
-        <v>40.4</v>
-      </c>
-      <c r="KK22" s="2">
-        <v>0</v>
-      </c>
-      <c r="KL22" s="2">
-        <v>47.7</v>
-      </c>
-      <c r="KM22" s="2">
-        <v>0</v>
-      </c>
-      <c r="KN22" s="2">
-        <v>0</v>
-      </c>
-      <c r="KO22" s="2">
-        <v>45.6</v>
-      </c>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
@@ -23878,29 +22995,29 @@
       <c r="W199" s="1"/>
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
-      <c r="J200" s="1"/>
-      <c r="K200" s="1"/>
-      <c r="L200" s="1"/>
-      <c r="M200" s="1"/>
-      <c r="N200" s="1"/>
-      <c r="O200" s="1"/>
-      <c r="P200" s="1"/>
-      <c r="Q200" s="1"/>
-      <c r="R200" s="1"/>
-      <c r="S200" s="1"/>
-      <c r="T200" s="1"/>
-      <c r="U200" s="1"/>
-      <c r="V200" s="1"/>
-      <c r="W200" s="1"/>
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2"/>
+      <c r="K200" s="2"/>
+      <c r="L200" s="2"/>
+      <c r="M200" s="2"/>
+      <c r="N200" s="2"/>
+      <c r="O200" s="2"/>
+      <c r="P200" s="2"/>
+      <c r="Q200" s="2"/>
+      <c r="R200" s="2"/>
+      <c r="S200" s="2"/>
+      <c r="T200" s="2"/>
+      <c r="U200" s="2"/>
+      <c r="V200" s="2"/>
+      <c r="W200" s="2"/>
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A201" s="2"/>
@@ -26377,31 +25494,6 @@
       <c r="V299" s="2"/>
       <c r="W299" s="2"/>
     </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A300" s="2"/>
-      <c r="B300" s="2"/>
-      <c r="C300" s="2"/>
-      <c r="D300" s="2"/>
-      <c r="E300" s="2"/>
-      <c r="F300" s="2"/>
-      <c r="G300" s="2"/>
-      <c r="H300" s="2"/>
-      <c r="I300" s="2"/>
-      <c r="J300" s="2"/>
-      <c r="K300" s="2"/>
-      <c r="L300" s="2"/>
-      <c r="M300" s="2"/>
-      <c r="N300" s="2"/>
-      <c r="O300" s="2"/>
-      <c r="P300" s="2"/>
-      <c r="Q300" s="2"/>
-      <c r="R300" s="2"/>
-      <c r="S300" s="2"/>
-      <c r="T300" s="2"/>
-      <c r="U300" s="2"/>
-      <c r="V300" s="2"/>
-      <c r="W300" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Fantasy-Hockey-Projector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53950DDE-2FA5-4C22-AE95-97D54BE207DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED347B72-A3C3-45FB-9288-D994FAD0C8C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1483,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:KO299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Fantasy-Hockey-Projector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED347B72-A3C3-45FB-9288-D994FAD0C8C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7A8897-CB1B-47F1-A268-AB40096E56A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1481,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KO299"/>
+  <dimension ref="A1:KO21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:L44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -20494,5006 +20494,6 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
-      <c r="R100" s="1"/>
-      <c r="S100" s="1"/>
-      <c r="T100" s="1"/>
-      <c r="U100" s="1"/>
-      <c r="V100" s="1"/>
-      <c r="W100" s="1"/>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
-      <c r="S101" s="1"/>
-      <c r="T101" s="1"/>
-      <c r="U101" s="1"/>
-      <c r="V101" s="1"/>
-      <c r="W101" s="1"/>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
-      <c r="R102" s="1"/>
-      <c r="S102" s="1"/>
-      <c r="T102" s="1"/>
-      <c r="U102" s="1"/>
-      <c r="V102" s="1"/>
-      <c r="W102" s="1"/>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
-      <c r="Q103" s="1"/>
-      <c r="R103" s="1"/>
-      <c r="S103" s="1"/>
-      <c r="T103" s="1"/>
-      <c r="U103" s="1"/>
-      <c r="V103" s="1"/>
-      <c r="W103" s="1"/>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
-      <c r="Q104" s="1"/>
-      <c r="R104" s="1"/>
-      <c r="S104" s="1"/>
-      <c r="T104" s="1"/>
-      <c r="U104" s="1"/>
-      <c r="V104" s="1"/>
-      <c r="W104" s="1"/>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
-      <c r="P105" s="1"/>
-      <c r="Q105" s="1"/>
-      <c r="R105" s="1"/>
-      <c r="S105" s="1"/>
-      <c r="T105" s="1"/>
-      <c r="U105" s="1"/>
-      <c r="V105" s="1"/>
-      <c r="W105" s="1"/>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="1"/>
-      <c r="Q106" s="1"/>
-      <c r="R106" s="1"/>
-      <c r="S106" s="1"/>
-      <c r="T106" s="1"/>
-      <c r="U106" s="1"/>
-      <c r="V106" s="1"/>
-      <c r="W106" s="1"/>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
-      <c r="R107" s="1"/>
-      <c r="S107" s="1"/>
-      <c r="T107" s="1"/>
-      <c r="U107" s="1"/>
-      <c r="V107" s="1"/>
-      <c r="W107" s="1"/>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
-      <c r="Q108" s="1"/>
-      <c r="R108" s="1"/>
-      <c r="S108" s="1"/>
-      <c r="T108" s="1"/>
-      <c r="U108" s="1"/>
-      <c r="V108" s="1"/>
-      <c r="W108" s="1"/>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
-      <c r="Q109" s="1"/>
-      <c r="R109" s="1"/>
-      <c r="S109" s="1"/>
-      <c r="T109" s="1"/>
-      <c r="U109" s="1"/>
-      <c r="V109" s="1"/>
-      <c r="W109" s="1"/>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
-      <c r="Q110" s="1"/>
-      <c r="R110" s="1"/>
-      <c r="S110" s="1"/>
-      <c r="T110" s="1"/>
-      <c r="U110" s="1"/>
-      <c r="V110" s="1"/>
-      <c r="W110" s="1"/>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
-      <c r="P111" s="1"/>
-      <c r="Q111" s="1"/>
-      <c r="R111" s="1"/>
-      <c r="S111" s="1"/>
-      <c r="T111" s="1"/>
-      <c r="U111" s="1"/>
-      <c r="V111" s="1"/>
-      <c r="W111" s="1"/>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
-      <c r="Q112" s="1"/>
-      <c r="R112" s="1"/>
-      <c r="S112" s="1"/>
-      <c r="T112" s="1"/>
-      <c r="U112" s="1"/>
-      <c r="V112" s="1"/>
-      <c r="W112" s="1"/>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
-      <c r="O113" s="1"/>
-      <c r="P113" s="1"/>
-      <c r="Q113" s="1"/>
-      <c r="R113" s="1"/>
-      <c r="S113" s="1"/>
-      <c r="T113" s="1"/>
-      <c r="U113" s="1"/>
-      <c r="V113" s="1"/>
-      <c r="W113" s="1"/>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
-      <c r="O114" s="1"/>
-      <c r="P114" s="1"/>
-      <c r="Q114" s="1"/>
-      <c r="R114" s="1"/>
-      <c r="S114" s="1"/>
-      <c r="T114" s="1"/>
-      <c r="U114" s="1"/>
-      <c r="V114" s="1"/>
-      <c r="W114" s="1"/>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
-      <c r="N115" s="1"/>
-      <c r="O115" s="1"/>
-      <c r="P115" s="1"/>
-      <c r="Q115" s="1"/>
-      <c r="R115" s="1"/>
-      <c r="S115" s="1"/>
-      <c r="T115" s="1"/>
-      <c r="U115" s="1"/>
-      <c r="V115" s="1"/>
-      <c r="W115" s="1"/>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
-      <c r="O116" s="1"/>
-      <c r="P116" s="1"/>
-      <c r="Q116" s="1"/>
-      <c r="R116" s="1"/>
-      <c r="S116" s="1"/>
-      <c r="T116" s="1"/>
-      <c r="U116" s="1"/>
-      <c r="V116" s="1"/>
-      <c r="W116" s="1"/>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
-      <c r="P117" s="1"/>
-      <c r="Q117" s="1"/>
-      <c r="R117" s="1"/>
-      <c r="S117" s="1"/>
-      <c r="T117" s="1"/>
-      <c r="U117" s="1"/>
-      <c r="V117" s="1"/>
-      <c r="W117" s="1"/>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
-      <c r="O118" s="1"/>
-      <c r="P118" s="1"/>
-      <c r="Q118" s="1"/>
-      <c r="R118" s="1"/>
-      <c r="S118" s="1"/>
-      <c r="T118" s="1"/>
-      <c r="U118" s="1"/>
-      <c r="V118" s="1"/>
-      <c r="W118" s="1"/>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
-      <c r="P119" s="1"/>
-      <c r="Q119" s="1"/>
-      <c r="R119" s="1"/>
-      <c r="S119" s="1"/>
-      <c r="T119" s="1"/>
-      <c r="U119" s="1"/>
-      <c r="V119" s="1"/>
-      <c r="W119" s="1"/>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
-      <c r="Q120" s="1"/>
-      <c r="R120" s="1"/>
-      <c r="S120" s="1"/>
-      <c r="T120" s="1"/>
-      <c r="U120" s="1"/>
-      <c r="V120" s="1"/>
-      <c r="W120" s="1"/>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
-      <c r="O121" s="1"/>
-      <c r="P121" s="1"/>
-      <c r="Q121" s="1"/>
-      <c r="R121" s="1"/>
-      <c r="S121" s="1"/>
-      <c r="T121" s="1"/>
-      <c r="U121" s="1"/>
-      <c r="V121" s="1"/>
-      <c r="W121" s="1"/>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
-      <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
-      <c r="Q122" s="1"/>
-      <c r="R122" s="1"/>
-      <c r="S122" s="1"/>
-      <c r="T122" s="1"/>
-      <c r="U122" s="1"/>
-      <c r="V122" s="1"/>
-      <c r="W122" s="1"/>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1"/>
-      <c r="M123" s="1"/>
-      <c r="N123" s="1"/>
-      <c r="O123" s="1"/>
-      <c r="P123" s="1"/>
-      <c r="Q123" s="1"/>
-      <c r="R123" s="1"/>
-      <c r="S123" s="1"/>
-      <c r="T123" s="1"/>
-      <c r="U123" s="1"/>
-      <c r="V123" s="1"/>
-      <c r="W123" s="1"/>
-    </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1"/>
-      <c r="M124" s="1"/>
-      <c r="N124" s="1"/>
-      <c r="O124" s="1"/>
-      <c r="P124" s="1"/>
-      <c r="Q124" s="1"/>
-      <c r="R124" s="1"/>
-      <c r="S124" s="1"/>
-      <c r="T124" s="1"/>
-      <c r="U124" s="1"/>
-      <c r="V124" s="1"/>
-      <c r="W124" s="1"/>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
-      <c r="K125" s="1"/>
-      <c r="L125" s="1"/>
-      <c r="M125" s="1"/>
-      <c r="N125" s="1"/>
-      <c r="O125" s="1"/>
-      <c r="P125" s="1"/>
-      <c r="Q125" s="1"/>
-      <c r="R125" s="1"/>
-      <c r="S125" s="1"/>
-      <c r="T125" s="1"/>
-      <c r="U125" s="1"/>
-      <c r="V125" s="1"/>
-      <c r="W125" s="1"/>
-    </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
-      <c r="M126" s="1"/>
-      <c r="N126" s="1"/>
-      <c r="O126" s="1"/>
-      <c r="P126" s="1"/>
-      <c r="Q126" s="1"/>
-      <c r="R126" s="1"/>
-      <c r="S126" s="1"/>
-      <c r="T126" s="1"/>
-      <c r="U126" s="1"/>
-      <c r="V126" s="1"/>
-      <c r="W126" s="1"/>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
-      <c r="K127" s="1"/>
-      <c r="L127" s="1"/>
-      <c r="M127" s="1"/>
-      <c r="N127" s="1"/>
-      <c r="O127" s="1"/>
-      <c r="P127" s="1"/>
-      <c r="Q127" s="1"/>
-      <c r="R127" s="1"/>
-      <c r="S127" s="1"/>
-      <c r="T127" s="1"/>
-      <c r="U127" s="1"/>
-      <c r="V127" s="1"/>
-      <c r="W127" s="1"/>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
-      <c r="K128" s="1"/>
-      <c r="L128" s="1"/>
-      <c r="M128" s="1"/>
-      <c r="N128" s="1"/>
-      <c r="O128" s="1"/>
-      <c r="P128" s="1"/>
-      <c r="Q128" s="1"/>
-      <c r="R128" s="1"/>
-      <c r="S128" s="1"/>
-      <c r="T128" s="1"/>
-      <c r="U128" s="1"/>
-      <c r="V128" s="1"/>
-      <c r="W128" s="1"/>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
-      <c r="K129" s="1"/>
-      <c r="L129" s="1"/>
-      <c r="M129" s="1"/>
-      <c r="N129" s="1"/>
-      <c r="O129" s="1"/>
-      <c r="P129" s="1"/>
-      <c r="Q129" s="1"/>
-      <c r="R129" s="1"/>
-      <c r="S129" s="1"/>
-      <c r="T129" s="1"/>
-      <c r="U129" s="1"/>
-      <c r="V129" s="1"/>
-      <c r="W129" s="1"/>
-    </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="1"/>
-      <c r="L130" s="1"/>
-      <c r="M130" s="1"/>
-      <c r="N130" s="1"/>
-      <c r="O130" s="1"/>
-      <c r="P130" s="1"/>
-      <c r="Q130" s="1"/>
-      <c r="R130" s="1"/>
-      <c r="S130" s="1"/>
-      <c r="T130" s="1"/>
-      <c r="U130" s="1"/>
-      <c r="V130" s="1"/>
-      <c r="W130" s="1"/>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
-      <c r="K131" s="1"/>
-      <c r="L131" s="1"/>
-      <c r="M131" s="1"/>
-      <c r="N131" s="1"/>
-      <c r="O131" s="1"/>
-      <c r="P131" s="1"/>
-      <c r="Q131" s="1"/>
-      <c r="R131" s="1"/>
-      <c r="S131" s="1"/>
-      <c r="T131" s="1"/>
-      <c r="U131" s="1"/>
-      <c r="V131" s="1"/>
-      <c r="W131" s="1"/>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
-      <c r="M132" s="1"/>
-      <c r="N132" s="1"/>
-      <c r="O132" s="1"/>
-      <c r="P132" s="1"/>
-      <c r="Q132" s="1"/>
-      <c r="R132" s="1"/>
-      <c r="S132" s="1"/>
-      <c r="T132" s="1"/>
-      <c r="U132" s="1"/>
-      <c r="V132" s="1"/>
-      <c r="W132" s="1"/>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
-      <c r="M133" s="1"/>
-      <c r="N133" s="1"/>
-      <c r="O133" s="1"/>
-      <c r="P133" s="1"/>
-      <c r="Q133" s="1"/>
-      <c r="R133" s="1"/>
-      <c r="S133" s="1"/>
-      <c r="T133" s="1"/>
-      <c r="U133" s="1"/>
-      <c r="V133" s="1"/>
-      <c r="W133" s="1"/>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-      <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
-      <c r="M134" s="1"/>
-      <c r="N134" s="1"/>
-      <c r="O134" s="1"/>
-      <c r="P134" s="1"/>
-      <c r="Q134" s="1"/>
-      <c r="R134" s="1"/>
-      <c r="S134" s="1"/>
-      <c r="T134" s="1"/>
-      <c r="U134" s="1"/>
-      <c r="V134" s="1"/>
-      <c r="W134" s="1"/>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
-      <c r="M135" s="1"/>
-      <c r="N135" s="1"/>
-      <c r="O135" s="1"/>
-      <c r="P135" s="1"/>
-      <c r="Q135" s="1"/>
-      <c r="R135" s="1"/>
-      <c r="S135" s="1"/>
-      <c r="T135" s="1"/>
-      <c r="U135" s="1"/>
-      <c r="V135" s="1"/>
-      <c r="W135" s="1"/>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
-      <c r="N136" s="1"/>
-      <c r="O136" s="1"/>
-      <c r="P136" s="1"/>
-      <c r="Q136" s="1"/>
-      <c r="R136" s="1"/>
-      <c r="S136" s="1"/>
-      <c r="T136" s="1"/>
-      <c r="U136" s="1"/>
-      <c r="V136" s="1"/>
-      <c r="W136" s="1"/>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
-      <c r="N137" s="1"/>
-      <c r="O137" s="1"/>
-      <c r="P137" s="1"/>
-      <c r="Q137" s="1"/>
-      <c r="R137" s="1"/>
-      <c r="S137" s="1"/>
-      <c r="T137" s="1"/>
-      <c r="U137" s="1"/>
-      <c r="V137" s="1"/>
-      <c r="W137" s="1"/>
-    </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
-      <c r="K138" s="1"/>
-      <c r="L138" s="1"/>
-      <c r="M138" s="1"/>
-      <c r="N138" s="1"/>
-      <c r="O138" s="1"/>
-      <c r="P138" s="1"/>
-      <c r="Q138" s="1"/>
-      <c r="R138" s="1"/>
-      <c r="S138" s="1"/>
-      <c r="T138" s="1"/>
-      <c r="U138" s="1"/>
-      <c r="V138" s="1"/>
-      <c r="W138" s="1"/>
-    </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
-      <c r="K139" s="1"/>
-      <c r="L139" s="1"/>
-      <c r="M139" s="1"/>
-      <c r="N139" s="1"/>
-      <c r="O139" s="1"/>
-      <c r="P139" s="1"/>
-      <c r="Q139" s="1"/>
-      <c r="R139" s="1"/>
-      <c r="S139" s="1"/>
-      <c r="T139" s="1"/>
-      <c r="U139" s="1"/>
-      <c r="V139" s="1"/>
-      <c r="W139" s="1"/>
-    </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="1"/>
-      <c r="N140" s="1"/>
-      <c r="O140" s="1"/>
-      <c r="P140" s="1"/>
-      <c r="Q140" s="1"/>
-      <c r="R140" s="1"/>
-      <c r="S140" s="1"/>
-      <c r="T140" s="1"/>
-      <c r="U140" s="1"/>
-      <c r="V140" s="1"/>
-      <c r="W140" s="1"/>
-    </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
-      <c r="K141" s="1"/>
-      <c r="L141" s="1"/>
-      <c r="M141" s="1"/>
-      <c r="N141" s="1"/>
-      <c r="O141" s="1"/>
-      <c r="P141" s="1"/>
-      <c r="Q141" s="1"/>
-      <c r="R141" s="1"/>
-      <c r="S141" s="1"/>
-      <c r="T141" s="1"/>
-      <c r="U141" s="1"/>
-      <c r="V141" s="1"/>
-      <c r="W141" s="1"/>
-    </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
-      <c r="K142" s="1"/>
-      <c r="L142" s="1"/>
-      <c r="M142" s="1"/>
-      <c r="N142" s="1"/>
-      <c r="O142" s="1"/>
-      <c r="P142" s="1"/>
-      <c r="Q142" s="1"/>
-      <c r="R142" s="1"/>
-      <c r="S142" s="1"/>
-      <c r="T142" s="1"/>
-      <c r="U142" s="1"/>
-      <c r="V142" s="1"/>
-      <c r="W142" s="1"/>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
-      <c r="K143" s="1"/>
-      <c r="L143" s="1"/>
-      <c r="M143" s="1"/>
-      <c r="N143" s="1"/>
-      <c r="O143" s="1"/>
-      <c r="P143" s="1"/>
-      <c r="Q143" s="1"/>
-      <c r="R143" s="1"/>
-      <c r="S143" s="1"/>
-      <c r="T143" s="1"/>
-      <c r="U143" s="1"/>
-      <c r="V143" s="1"/>
-      <c r="W143" s="1"/>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
-      <c r="K144" s="1"/>
-      <c r="L144" s="1"/>
-      <c r="M144" s="1"/>
-      <c r="N144" s="1"/>
-      <c r="O144" s="1"/>
-      <c r="P144" s="1"/>
-      <c r="Q144" s="1"/>
-      <c r="R144" s="1"/>
-      <c r="S144" s="1"/>
-      <c r="T144" s="1"/>
-      <c r="U144" s="1"/>
-      <c r="V144" s="1"/>
-      <c r="W144" s="1"/>
-    </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
-      <c r="K145" s="1"/>
-      <c r="L145" s="1"/>
-      <c r="M145" s="1"/>
-      <c r="N145" s="1"/>
-      <c r="O145" s="1"/>
-      <c r="P145" s="1"/>
-      <c r="Q145" s="1"/>
-      <c r="R145" s="1"/>
-      <c r="S145" s="1"/>
-      <c r="T145" s="1"/>
-      <c r="U145" s="1"/>
-      <c r="V145" s="1"/>
-      <c r="W145" s="1"/>
-    </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
-      <c r="K146" s="1"/>
-      <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
-      <c r="P146" s="1"/>
-      <c r="Q146" s="1"/>
-      <c r="R146" s="1"/>
-      <c r="S146" s="1"/>
-      <c r="T146" s="1"/>
-      <c r="U146" s="1"/>
-      <c r="V146" s="1"/>
-      <c r="W146" s="1"/>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
-      <c r="K147" s="1"/>
-      <c r="L147" s="1"/>
-      <c r="M147" s="1"/>
-      <c r="N147" s="1"/>
-      <c r="O147" s="1"/>
-      <c r="P147" s="1"/>
-      <c r="Q147" s="1"/>
-      <c r="R147" s="1"/>
-      <c r="S147" s="1"/>
-      <c r="T147" s="1"/>
-      <c r="U147" s="1"/>
-      <c r="V147" s="1"/>
-      <c r="W147" s="1"/>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
-      <c r="N148" s="1"/>
-      <c r="O148" s="1"/>
-      <c r="P148" s="1"/>
-      <c r="Q148" s="1"/>
-      <c r="R148" s="1"/>
-      <c r="S148" s="1"/>
-      <c r="T148" s="1"/>
-      <c r="U148" s="1"/>
-      <c r="V148" s="1"/>
-      <c r="W148" s="1"/>
-    </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-      <c r="J149" s="1"/>
-      <c r="K149" s="1"/>
-      <c r="L149" s="1"/>
-      <c r="M149" s="1"/>
-      <c r="N149" s="1"/>
-      <c r="O149" s="1"/>
-      <c r="P149" s="1"/>
-      <c r="Q149" s="1"/>
-      <c r="R149" s="1"/>
-      <c r="S149" s="1"/>
-      <c r="T149" s="1"/>
-      <c r="U149" s="1"/>
-      <c r="V149" s="1"/>
-      <c r="W149" s="1"/>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
-      <c r="K150" s="1"/>
-      <c r="L150" s="1"/>
-      <c r="M150" s="1"/>
-      <c r="N150" s="1"/>
-      <c r="O150" s="1"/>
-      <c r="P150" s="1"/>
-      <c r="Q150" s="1"/>
-      <c r="R150" s="1"/>
-      <c r="S150" s="1"/>
-      <c r="T150" s="1"/>
-      <c r="U150" s="1"/>
-      <c r="V150" s="1"/>
-      <c r="W150" s="1"/>
-    </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
-      <c r="K151" s="1"/>
-      <c r="L151" s="1"/>
-      <c r="M151" s="1"/>
-      <c r="N151" s="1"/>
-      <c r="O151" s="1"/>
-      <c r="P151" s="1"/>
-      <c r="Q151" s="1"/>
-      <c r="R151" s="1"/>
-      <c r="S151" s="1"/>
-      <c r="T151" s="1"/>
-      <c r="U151" s="1"/>
-      <c r="V151" s="1"/>
-      <c r="W151" s="1"/>
-    </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
-      <c r="K152" s="1"/>
-      <c r="L152" s="1"/>
-      <c r="M152" s="1"/>
-      <c r="N152" s="1"/>
-      <c r="O152" s="1"/>
-      <c r="P152" s="1"/>
-      <c r="Q152" s="1"/>
-      <c r="R152" s="1"/>
-      <c r="S152" s="1"/>
-      <c r="T152" s="1"/>
-      <c r="U152" s="1"/>
-      <c r="V152" s="1"/>
-      <c r="W152" s="1"/>
-    </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-      <c r="J153" s="1"/>
-      <c r="K153" s="1"/>
-      <c r="L153" s="1"/>
-      <c r="M153" s="1"/>
-      <c r="N153" s="1"/>
-      <c r="O153" s="1"/>
-      <c r="P153" s="1"/>
-      <c r="Q153" s="1"/>
-      <c r="R153" s="1"/>
-      <c r="S153" s="1"/>
-      <c r="T153" s="1"/>
-      <c r="U153" s="1"/>
-      <c r="V153" s="1"/>
-      <c r="W153" s="1"/>
-    </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
-      <c r="J154" s="1"/>
-      <c r="K154" s="1"/>
-      <c r="L154" s="1"/>
-      <c r="M154" s="1"/>
-      <c r="N154" s="1"/>
-      <c r="O154" s="1"/>
-      <c r="P154" s="1"/>
-      <c r="Q154" s="1"/>
-      <c r="R154" s="1"/>
-      <c r="S154" s="1"/>
-      <c r="T154" s="1"/>
-      <c r="U154" s="1"/>
-      <c r="V154" s="1"/>
-      <c r="W154" s="1"/>
-    </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
-      <c r="K155" s="1"/>
-      <c r="L155" s="1"/>
-      <c r="M155" s="1"/>
-      <c r="N155" s="1"/>
-      <c r="O155" s="1"/>
-      <c r="P155" s="1"/>
-      <c r="Q155" s="1"/>
-      <c r="R155" s="1"/>
-      <c r="S155" s="1"/>
-      <c r="T155" s="1"/>
-      <c r="U155" s="1"/>
-      <c r="V155" s="1"/>
-      <c r="W155" s="1"/>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
-      <c r="K156" s="1"/>
-      <c r="L156" s="1"/>
-      <c r="M156" s="1"/>
-      <c r="N156" s="1"/>
-      <c r="O156" s="1"/>
-      <c r="P156" s="1"/>
-      <c r="Q156" s="1"/>
-      <c r="R156" s="1"/>
-      <c r="S156" s="1"/>
-      <c r="T156" s="1"/>
-      <c r="U156" s="1"/>
-      <c r="V156" s="1"/>
-      <c r="W156" s="1"/>
-    </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
-      <c r="M157" s="1"/>
-      <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
-      <c r="P157" s="1"/>
-      <c r="Q157" s="1"/>
-      <c r="R157" s="1"/>
-      <c r="S157" s="1"/>
-      <c r="T157" s="1"/>
-      <c r="U157" s="1"/>
-      <c r="V157" s="1"/>
-      <c r="W157" s="1"/>
-    </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
-      <c r="K158" s="1"/>
-      <c r="L158" s="1"/>
-      <c r="M158" s="1"/>
-      <c r="N158" s="1"/>
-      <c r="O158" s="1"/>
-      <c r="P158" s="1"/>
-      <c r="Q158" s="1"/>
-      <c r="R158" s="1"/>
-      <c r="S158" s="1"/>
-      <c r="T158" s="1"/>
-      <c r="U158" s="1"/>
-      <c r="V158" s="1"/>
-      <c r="W158" s="1"/>
-    </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-      <c r="K159" s="1"/>
-      <c r="L159" s="1"/>
-      <c r="M159" s="1"/>
-      <c r="N159" s="1"/>
-      <c r="O159" s="1"/>
-      <c r="P159" s="1"/>
-      <c r="Q159" s="1"/>
-      <c r="R159" s="1"/>
-      <c r="S159" s="1"/>
-      <c r="T159" s="1"/>
-      <c r="U159" s="1"/>
-      <c r="V159" s="1"/>
-      <c r="W159" s="1"/>
-    </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
-      <c r="N160" s="1"/>
-      <c r="O160" s="1"/>
-      <c r="P160" s="1"/>
-      <c r="Q160" s="1"/>
-      <c r="R160" s="1"/>
-      <c r="S160" s="1"/>
-      <c r="T160" s="1"/>
-      <c r="U160" s="1"/>
-      <c r="V160" s="1"/>
-      <c r="W160" s="1"/>
-    </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
-      <c r="K161" s="1"/>
-      <c r="L161" s="1"/>
-      <c r="M161" s="1"/>
-      <c r="N161" s="1"/>
-      <c r="O161" s="1"/>
-      <c r="P161" s="1"/>
-      <c r="Q161" s="1"/>
-      <c r="R161" s="1"/>
-      <c r="S161" s="1"/>
-      <c r="T161" s="1"/>
-      <c r="U161" s="1"/>
-      <c r="V161" s="1"/>
-      <c r="W161" s="1"/>
-    </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
-      <c r="K162" s="1"/>
-      <c r="L162" s="1"/>
-      <c r="M162" s="1"/>
-      <c r="N162" s="1"/>
-      <c r="O162" s="1"/>
-      <c r="P162" s="1"/>
-      <c r="Q162" s="1"/>
-      <c r="R162" s="1"/>
-      <c r="S162" s="1"/>
-      <c r="T162" s="1"/>
-      <c r="U162" s="1"/>
-      <c r="V162" s="1"/>
-      <c r="W162" s="1"/>
-    </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
-      <c r="K163" s="1"/>
-      <c r="L163" s="1"/>
-      <c r="M163" s="1"/>
-      <c r="N163" s="1"/>
-      <c r="O163" s="1"/>
-      <c r="P163" s="1"/>
-      <c r="Q163" s="1"/>
-      <c r="R163" s="1"/>
-      <c r="S163" s="1"/>
-      <c r="T163" s="1"/>
-      <c r="U163" s="1"/>
-      <c r="V163" s="1"/>
-      <c r="W163" s="1"/>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
-      <c r="K164" s="1"/>
-      <c r="L164" s="1"/>
-      <c r="M164" s="1"/>
-      <c r="N164" s="1"/>
-      <c r="O164" s="1"/>
-      <c r="P164" s="1"/>
-      <c r="Q164" s="1"/>
-      <c r="R164" s="1"/>
-      <c r="S164" s="1"/>
-      <c r="T164" s="1"/>
-      <c r="U164" s="1"/>
-      <c r="V164" s="1"/>
-      <c r="W164" s="1"/>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
-      <c r="J165" s="1"/>
-      <c r="K165" s="1"/>
-      <c r="L165" s="1"/>
-      <c r="M165" s="1"/>
-      <c r="N165" s="1"/>
-      <c r="O165" s="1"/>
-      <c r="P165" s="1"/>
-      <c r="Q165" s="1"/>
-      <c r="R165" s="1"/>
-      <c r="S165" s="1"/>
-      <c r="T165" s="1"/>
-      <c r="U165" s="1"/>
-      <c r="V165" s="1"/>
-      <c r="W165" s="1"/>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
-      <c r="K166" s="1"/>
-      <c r="L166" s="1"/>
-      <c r="M166" s="1"/>
-      <c r="N166" s="1"/>
-      <c r="O166" s="1"/>
-      <c r="P166" s="1"/>
-      <c r="Q166" s="1"/>
-      <c r="R166" s="1"/>
-      <c r="S166" s="1"/>
-      <c r="T166" s="1"/>
-      <c r="U166" s="1"/>
-      <c r="V166" s="1"/>
-      <c r="W166" s="1"/>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
-      <c r="K167" s="1"/>
-      <c r="L167" s="1"/>
-      <c r="M167" s="1"/>
-      <c r="N167" s="1"/>
-      <c r="O167" s="1"/>
-      <c r="P167" s="1"/>
-      <c r="Q167" s="1"/>
-      <c r="R167" s="1"/>
-      <c r="S167" s="1"/>
-      <c r="T167" s="1"/>
-      <c r="U167" s="1"/>
-      <c r="V167" s="1"/>
-      <c r="W167" s="1"/>
-    </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
-      <c r="K168" s="1"/>
-      <c r="L168" s="1"/>
-      <c r="M168" s="1"/>
-      <c r="N168" s="1"/>
-      <c r="O168" s="1"/>
-      <c r="P168" s="1"/>
-      <c r="Q168" s="1"/>
-      <c r="R168" s="1"/>
-      <c r="S168" s="1"/>
-      <c r="T168" s="1"/>
-      <c r="U168" s="1"/>
-      <c r="V168" s="1"/>
-      <c r="W168" s="1"/>
-    </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
-      <c r="K169" s="1"/>
-      <c r="L169" s="1"/>
-      <c r="M169" s="1"/>
-      <c r="N169" s="1"/>
-      <c r="O169" s="1"/>
-      <c r="P169" s="1"/>
-      <c r="Q169" s="1"/>
-      <c r="R169" s="1"/>
-      <c r="S169" s="1"/>
-      <c r="T169" s="1"/>
-      <c r="U169" s="1"/>
-      <c r="V169" s="1"/>
-      <c r="W169" s="1"/>
-    </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
-      <c r="K170" s="1"/>
-      <c r="L170" s="1"/>
-      <c r="M170" s="1"/>
-      <c r="N170" s="1"/>
-      <c r="O170" s="1"/>
-      <c r="P170" s="1"/>
-      <c r="Q170" s="1"/>
-      <c r="R170" s="1"/>
-      <c r="S170" s="1"/>
-      <c r="T170" s="1"/>
-      <c r="U170" s="1"/>
-      <c r="V170" s="1"/>
-      <c r="W170" s="1"/>
-    </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
-      <c r="J171" s="1"/>
-      <c r="K171" s="1"/>
-      <c r="L171" s="1"/>
-      <c r="M171" s="1"/>
-      <c r="N171" s="1"/>
-      <c r="O171" s="1"/>
-      <c r="P171" s="1"/>
-      <c r="Q171" s="1"/>
-      <c r="R171" s="1"/>
-      <c r="S171" s="1"/>
-      <c r="T171" s="1"/>
-      <c r="U171" s="1"/>
-      <c r="V171" s="1"/>
-      <c r="W171" s="1"/>
-    </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
-      <c r="K172" s="1"/>
-      <c r="L172" s="1"/>
-      <c r="M172" s="1"/>
-      <c r="N172" s="1"/>
-      <c r="O172" s="1"/>
-      <c r="P172" s="1"/>
-      <c r="Q172" s="1"/>
-      <c r="R172" s="1"/>
-      <c r="S172" s="1"/>
-      <c r="T172" s="1"/>
-      <c r="U172" s="1"/>
-      <c r="V172" s="1"/>
-      <c r="W172" s="1"/>
-    </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
-      <c r="K173" s="1"/>
-      <c r="L173" s="1"/>
-      <c r="M173" s="1"/>
-      <c r="N173" s="1"/>
-      <c r="O173" s="1"/>
-      <c r="P173" s="1"/>
-      <c r="Q173" s="1"/>
-      <c r="R173" s="1"/>
-      <c r="S173" s="1"/>
-      <c r="T173" s="1"/>
-      <c r="U173" s="1"/>
-      <c r="V173" s="1"/>
-      <c r="W173" s="1"/>
-    </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
-      <c r="K174" s="1"/>
-      <c r="L174" s="1"/>
-      <c r="M174" s="1"/>
-      <c r="N174" s="1"/>
-      <c r="O174" s="1"/>
-      <c r="P174" s="1"/>
-      <c r="Q174" s="1"/>
-      <c r="R174" s="1"/>
-      <c r="S174" s="1"/>
-      <c r="T174" s="1"/>
-      <c r="U174" s="1"/>
-      <c r="V174" s="1"/>
-      <c r="W174" s="1"/>
-    </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
-      <c r="K175" s="1"/>
-      <c r="L175" s="1"/>
-      <c r="M175" s="1"/>
-      <c r="N175" s="1"/>
-      <c r="O175" s="1"/>
-      <c r="P175" s="1"/>
-      <c r="Q175" s="1"/>
-      <c r="R175" s="1"/>
-      <c r="S175" s="1"/>
-      <c r="T175" s="1"/>
-      <c r="U175" s="1"/>
-      <c r="V175" s="1"/>
-      <c r="W175" s="1"/>
-    </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
-      <c r="K176" s="1"/>
-      <c r="L176" s="1"/>
-      <c r="M176" s="1"/>
-      <c r="N176" s="1"/>
-      <c r="O176" s="1"/>
-      <c r="P176" s="1"/>
-      <c r="Q176" s="1"/>
-      <c r="R176" s="1"/>
-      <c r="S176" s="1"/>
-      <c r="T176" s="1"/>
-      <c r="U176" s="1"/>
-      <c r="V176" s="1"/>
-      <c r="W176" s="1"/>
-    </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-      <c r="K177" s="1"/>
-      <c r="L177" s="1"/>
-      <c r="M177" s="1"/>
-      <c r="N177" s="1"/>
-      <c r="O177" s="1"/>
-      <c r="P177" s="1"/>
-      <c r="Q177" s="1"/>
-      <c r="R177" s="1"/>
-      <c r="S177" s="1"/>
-      <c r="T177" s="1"/>
-      <c r="U177" s="1"/>
-      <c r="V177" s="1"/>
-      <c r="W177" s="1"/>
-    </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
-      <c r="K178" s="1"/>
-      <c r="L178" s="1"/>
-      <c r="M178" s="1"/>
-      <c r="N178" s="1"/>
-      <c r="O178" s="1"/>
-      <c r="P178" s="1"/>
-      <c r="Q178" s="1"/>
-      <c r="R178" s="1"/>
-      <c r="S178" s="1"/>
-      <c r="T178" s="1"/>
-      <c r="U178" s="1"/>
-      <c r="V178" s="1"/>
-      <c r="W178" s="1"/>
-    </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-      <c r="K179" s="1"/>
-      <c r="L179" s="1"/>
-      <c r="M179" s="1"/>
-      <c r="N179" s="1"/>
-      <c r="O179" s="1"/>
-      <c r="P179" s="1"/>
-      <c r="Q179" s="1"/>
-      <c r="R179" s="1"/>
-      <c r="S179" s="1"/>
-      <c r="T179" s="1"/>
-      <c r="U179" s="1"/>
-      <c r="V179" s="1"/>
-      <c r="W179" s="1"/>
-    </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
-      <c r="K180" s="1"/>
-      <c r="L180" s="1"/>
-      <c r="M180" s="1"/>
-      <c r="N180" s="1"/>
-      <c r="O180" s="1"/>
-      <c r="P180" s="1"/>
-      <c r="Q180" s="1"/>
-      <c r="R180" s="1"/>
-      <c r="S180" s="1"/>
-      <c r="T180" s="1"/>
-      <c r="U180" s="1"/>
-      <c r="V180" s="1"/>
-      <c r="W180" s="1"/>
-    </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
-      <c r="K181" s="1"/>
-      <c r="L181" s="1"/>
-      <c r="M181" s="1"/>
-      <c r="N181" s="1"/>
-      <c r="O181" s="1"/>
-      <c r="P181" s="1"/>
-      <c r="Q181" s="1"/>
-      <c r="R181" s="1"/>
-      <c r="S181" s="1"/>
-      <c r="T181" s="1"/>
-      <c r="U181" s="1"/>
-      <c r="V181" s="1"/>
-      <c r="W181" s="1"/>
-    </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
-      <c r="K182" s="1"/>
-      <c r="L182" s="1"/>
-      <c r="M182" s="1"/>
-      <c r="N182" s="1"/>
-      <c r="O182" s="1"/>
-      <c r="P182" s="1"/>
-      <c r="Q182" s="1"/>
-      <c r="R182" s="1"/>
-      <c r="S182" s="1"/>
-      <c r="T182" s="1"/>
-      <c r="U182" s="1"/>
-      <c r="V182" s="1"/>
-      <c r="W182" s="1"/>
-    </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
-      <c r="J183" s="1"/>
-      <c r="K183" s="1"/>
-      <c r="L183" s="1"/>
-      <c r="M183" s="1"/>
-      <c r="N183" s="1"/>
-      <c r="O183" s="1"/>
-      <c r="P183" s="1"/>
-      <c r="Q183" s="1"/>
-      <c r="R183" s="1"/>
-      <c r="S183" s="1"/>
-      <c r="T183" s="1"/>
-      <c r="U183" s="1"/>
-      <c r="V183" s="1"/>
-      <c r="W183" s="1"/>
-    </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
-      <c r="K184" s="1"/>
-      <c r="L184" s="1"/>
-      <c r="M184" s="1"/>
-      <c r="N184" s="1"/>
-      <c r="O184" s="1"/>
-      <c r="P184" s="1"/>
-      <c r="Q184" s="1"/>
-      <c r="R184" s="1"/>
-      <c r="S184" s="1"/>
-      <c r="T184" s="1"/>
-      <c r="U184" s="1"/>
-      <c r="V184" s="1"/>
-      <c r="W184" s="1"/>
-    </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
-      <c r="I185" s="1"/>
-      <c r="J185" s="1"/>
-      <c r="K185" s="1"/>
-      <c r="L185" s="1"/>
-      <c r="M185" s="1"/>
-      <c r="N185" s="1"/>
-      <c r="O185" s="1"/>
-      <c r="P185" s="1"/>
-      <c r="Q185" s="1"/>
-      <c r="R185" s="1"/>
-      <c r="S185" s="1"/>
-      <c r="T185" s="1"/>
-      <c r="U185" s="1"/>
-      <c r="V185" s="1"/>
-      <c r="W185" s="1"/>
-    </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
-      <c r="I186" s="1"/>
-      <c r="J186" s="1"/>
-      <c r="K186" s="1"/>
-      <c r="L186" s="1"/>
-      <c r="M186" s="1"/>
-      <c r="N186" s="1"/>
-      <c r="O186" s="1"/>
-      <c r="P186" s="1"/>
-      <c r="Q186" s="1"/>
-      <c r="R186" s="1"/>
-      <c r="S186" s="1"/>
-      <c r="T186" s="1"/>
-      <c r="U186" s="1"/>
-      <c r="V186" s="1"/>
-      <c r="W186" s="1"/>
-    </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
-      <c r="K187" s="1"/>
-      <c r="L187" s="1"/>
-      <c r="M187" s="1"/>
-      <c r="N187" s="1"/>
-      <c r="O187" s="1"/>
-      <c r="P187" s="1"/>
-      <c r="Q187" s="1"/>
-      <c r="R187" s="1"/>
-      <c r="S187" s="1"/>
-      <c r="T187" s="1"/>
-      <c r="U187" s="1"/>
-      <c r="V187" s="1"/>
-      <c r="W187" s="1"/>
-    </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
-      <c r="H188" s="1"/>
-      <c r="I188" s="1"/>
-      <c r="J188" s="1"/>
-      <c r="K188" s="1"/>
-      <c r="L188" s="1"/>
-      <c r="M188" s="1"/>
-      <c r="N188" s="1"/>
-      <c r="O188" s="1"/>
-      <c r="P188" s="1"/>
-      <c r="Q188" s="1"/>
-      <c r="R188" s="1"/>
-      <c r="S188" s="1"/>
-      <c r="T188" s="1"/>
-      <c r="U188" s="1"/>
-      <c r="V188" s="1"/>
-      <c r="W188" s="1"/>
-    </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="1"/>
-      <c r="K189" s="1"/>
-      <c r="L189" s="1"/>
-      <c r="M189" s="1"/>
-      <c r="N189" s="1"/>
-      <c r="O189" s="1"/>
-      <c r="P189" s="1"/>
-      <c r="Q189" s="1"/>
-      <c r="R189" s="1"/>
-      <c r="S189" s="1"/>
-      <c r="T189" s="1"/>
-      <c r="U189" s="1"/>
-      <c r="V189" s="1"/>
-      <c r="W189" s="1"/>
-    </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
-      <c r="H190" s="1"/>
-      <c r="I190" s="1"/>
-      <c r="J190" s="1"/>
-      <c r="K190" s="1"/>
-      <c r="L190" s="1"/>
-      <c r="M190" s="1"/>
-      <c r="N190" s="1"/>
-      <c r="O190" s="1"/>
-      <c r="P190" s="1"/>
-      <c r="Q190" s="1"/>
-      <c r="R190" s="1"/>
-      <c r="S190" s="1"/>
-      <c r="T190" s="1"/>
-      <c r="U190" s="1"/>
-      <c r="V190" s="1"/>
-      <c r="W190" s="1"/>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
-      <c r="G191" s="1"/>
-      <c r="H191" s="1"/>
-      <c r="I191" s="1"/>
-      <c r="J191" s="1"/>
-      <c r="K191" s="1"/>
-      <c r="L191" s="1"/>
-      <c r="M191" s="1"/>
-      <c r="N191" s="1"/>
-      <c r="O191" s="1"/>
-      <c r="P191" s="1"/>
-      <c r="Q191" s="1"/>
-      <c r="R191" s="1"/>
-      <c r="S191" s="1"/>
-      <c r="T191" s="1"/>
-      <c r="U191" s="1"/>
-      <c r="V191" s="1"/>
-      <c r="W191" s="1"/>
-    </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
-      <c r="H192" s="1"/>
-      <c r="I192" s="1"/>
-      <c r="J192" s="1"/>
-      <c r="K192" s="1"/>
-      <c r="L192" s="1"/>
-      <c r="M192" s="1"/>
-      <c r="N192" s="1"/>
-      <c r="O192" s="1"/>
-      <c r="P192" s="1"/>
-      <c r="Q192" s="1"/>
-      <c r="R192" s="1"/>
-      <c r="S192" s="1"/>
-      <c r="T192" s="1"/>
-      <c r="U192" s="1"/>
-      <c r="V192" s="1"/>
-      <c r="W192" s="1"/>
-    </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
-      <c r="H193" s="1"/>
-      <c r="I193" s="1"/>
-      <c r="J193" s="1"/>
-      <c r="K193" s="1"/>
-      <c r="L193" s="1"/>
-      <c r="M193" s="1"/>
-      <c r="N193" s="1"/>
-      <c r="O193" s="1"/>
-      <c r="P193" s="1"/>
-      <c r="Q193" s="1"/>
-      <c r="R193" s="1"/>
-      <c r="S193" s="1"/>
-      <c r="T193" s="1"/>
-      <c r="U193" s="1"/>
-      <c r="V193" s="1"/>
-      <c r="W193" s="1"/>
-    </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
-      <c r="H194" s="1"/>
-      <c r="I194" s="1"/>
-      <c r="J194" s="1"/>
-      <c r="K194" s="1"/>
-      <c r="L194" s="1"/>
-      <c r="M194" s="1"/>
-      <c r="N194" s="1"/>
-      <c r="O194" s="1"/>
-      <c r="P194" s="1"/>
-      <c r="Q194" s="1"/>
-      <c r="R194" s="1"/>
-      <c r="S194" s="1"/>
-      <c r="T194" s="1"/>
-      <c r="U194" s="1"/>
-      <c r="V194" s="1"/>
-      <c r="W194" s="1"/>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
-      <c r="H195" s="1"/>
-      <c r="I195" s="1"/>
-      <c r="J195" s="1"/>
-      <c r="K195" s="1"/>
-      <c r="L195" s="1"/>
-      <c r="M195" s="1"/>
-      <c r="N195" s="1"/>
-      <c r="O195" s="1"/>
-      <c r="P195" s="1"/>
-      <c r="Q195" s="1"/>
-      <c r="R195" s="1"/>
-      <c r="S195" s="1"/>
-      <c r="T195" s="1"/>
-      <c r="U195" s="1"/>
-      <c r="V195" s="1"/>
-      <c r="W195" s="1"/>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
-      <c r="H196" s="1"/>
-      <c r="I196" s="1"/>
-      <c r="J196" s="1"/>
-      <c r="K196" s="1"/>
-      <c r="L196" s="1"/>
-      <c r="M196" s="1"/>
-      <c r="N196" s="1"/>
-      <c r="O196" s="1"/>
-      <c r="P196" s="1"/>
-      <c r="Q196" s="1"/>
-      <c r="R196" s="1"/>
-      <c r="S196" s="1"/>
-      <c r="T196" s="1"/>
-      <c r="U196" s="1"/>
-      <c r="V196" s="1"/>
-      <c r="W196" s="1"/>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
-      <c r="H197" s="1"/>
-      <c r="I197" s="1"/>
-      <c r="J197" s="1"/>
-      <c r="K197" s="1"/>
-      <c r="L197" s="1"/>
-      <c r="M197" s="1"/>
-      <c r="N197" s="1"/>
-      <c r="O197" s="1"/>
-      <c r="P197" s="1"/>
-      <c r="Q197" s="1"/>
-      <c r="R197" s="1"/>
-      <c r="S197" s="1"/>
-      <c r="T197" s="1"/>
-      <c r="U197" s="1"/>
-      <c r="V197" s="1"/>
-      <c r="W197" s="1"/>
-    </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
-      <c r="H198" s="1"/>
-      <c r="I198" s="1"/>
-      <c r="J198" s="1"/>
-      <c r="K198" s="1"/>
-      <c r="L198" s="1"/>
-      <c r="M198" s="1"/>
-      <c r="N198" s="1"/>
-      <c r="O198" s="1"/>
-      <c r="P198" s="1"/>
-      <c r="Q198" s="1"/>
-      <c r="R198" s="1"/>
-      <c r="S198" s="1"/>
-      <c r="T198" s="1"/>
-      <c r="U198" s="1"/>
-      <c r="V198" s="1"/>
-      <c r="W198" s="1"/>
-    </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
-      <c r="J199" s="1"/>
-      <c r="K199" s="1"/>
-      <c r="L199" s="1"/>
-      <c r="M199" s="1"/>
-      <c r="N199" s="1"/>
-      <c r="O199" s="1"/>
-      <c r="P199" s="1"/>
-      <c r="Q199" s="1"/>
-      <c r="R199" s="1"/>
-      <c r="S199" s="1"/>
-      <c r="T199" s="1"/>
-      <c r="U199" s="1"/>
-      <c r="V199" s="1"/>
-      <c r="W199" s="1"/>
-    </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
-      <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
-      <c r="I200" s="2"/>
-      <c r="J200" s="2"/>
-      <c r="K200" s="2"/>
-      <c r="L200" s="2"/>
-      <c r="M200" s="2"/>
-      <c r="N200" s="2"/>
-      <c r="O200" s="2"/>
-      <c r="P200" s="2"/>
-      <c r="Q200" s="2"/>
-      <c r="R200" s="2"/>
-      <c r="S200" s="2"/>
-      <c r="T200" s="2"/>
-      <c r="U200" s="2"/>
-      <c r="V200" s="2"/>
-      <c r="W200" s="2"/>
-    </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
-      <c r="I201" s="2"/>
-      <c r="J201" s="2"/>
-      <c r="K201" s="2"/>
-      <c r="L201" s="2"/>
-      <c r="M201" s="2"/>
-      <c r="N201" s="2"/>
-      <c r="O201" s="2"/>
-      <c r="P201" s="2"/>
-      <c r="Q201" s="2"/>
-      <c r="R201" s="2"/>
-      <c r="S201" s="2"/>
-      <c r="T201" s="2"/>
-      <c r="U201" s="2"/>
-      <c r="V201" s="2"/>
-      <c r="W201" s="2"/>
-    </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
-      <c r="F202" s="2"/>
-      <c r="G202" s="2"/>
-      <c r="H202" s="2"/>
-      <c r="I202" s="2"/>
-      <c r="J202" s="2"/>
-      <c r="K202" s="2"/>
-      <c r="L202" s="2"/>
-      <c r="M202" s="2"/>
-      <c r="N202" s="2"/>
-      <c r="O202" s="2"/>
-      <c r="P202" s="2"/>
-      <c r="Q202" s="2"/>
-      <c r="R202" s="2"/>
-      <c r="S202" s="2"/>
-      <c r="T202" s="2"/>
-      <c r="U202" s="2"/>
-      <c r="V202" s="2"/>
-      <c r="W202" s="2"/>
-    </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
-      <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
-      <c r="I203" s="2"/>
-      <c r="J203" s="2"/>
-      <c r="K203" s="2"/>
-      <c r="L203" s="2"/>
-      <c r="M203" s="2"/>
-      <c r="N203" s="2"/>
-      <c r="O203" s="2"/>
-      <c r="P203" s="2"/>
-      <c r="Q203" s="2"/>
-      <c r="R203" s="2"/>
-      <c r="S203" s="2"/>
-      <c r="T203" s="2"/>
-      <c r="U203" s="2"/>
-      <c r="V203" s="2"/>
-      <c r="W203" s="2"/>
-    </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
-      <c r="G204" s="2"/>
-      <c r="H204" s="2"/>
-      <c r="I204" s="2"/>
-      <c r="J204" s="2"/>
-      <c r="K204" s="2"/>
-      <c r="L204" s="2"/>
-      <c r="M204" s="2"/>
-      <c r="N204" s="2"/>
-      <c r="O204" s="2"/>
-      <c r="P204" s="2"/>
-      <c r="Q204" s="2"/>
-      <c r="R204" s="2"/>
-      <c r="S204" s="2"/>
-      <c r="T204" s="2"/>
-      <c r="U204" s="2"/>
-      <c r="V204" s="2"/>
-      <c r="W204" s="2"/>
-    </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
-      <c r="I205" s="2"/>
-      <c r="J205" s="2"/>
-      <c r="K205" s="2"/>
-      <c r="L205" s="2"/>
-      <c r="M205" s="2"/>
-      <c r="N205" s="2"/>
-      <c r="O205" s="2"/>
-      <c r="P205" s="2"/>
-      <c r="Q205" s="2"/>
-      <c r="R205" s="2"/>
-      <c r="S205" s="2"/>
-      <c r="T205" s="2"/>
-      <c r="U205" s="2"/>
-      <c r="V205" s="2"/>
-      <c r="W205" s="2"/>
-    </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="2"/>
-      <c r="G206" s="2"/>
-      <c r="H206" s="2"/>
-      <c r="I206" s="2"/>
-      <c r="J206" s="2"/>
-      <c r="K206" s="2"/>
-      <c r="L206" s="2"/>
-      <c r="M206" s="2"/>
-      <c r="N206" s="2"/>
-      <c r="O206" s="2"/>
-      <c r="P206" s="2"/>
-      <c r="Q206" s="2"/>
-      <c r="R206" s="2"/>
-      <c r="S206" s="2"/>
-      <c r="T206" s="2"/>
-      <c r="U206" s="2"/>
-      <c r="V206" s="2"/>
-      <c r="W206" s="2"/>
-    </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-      <c r="F207" s="2"/>
-      <c r="G207" s="2"/>
-      <c r="H207" s="2"/>
-      <c r="I207" s="2"/>
-      <c r="J207" s="2"/>
-      <c r="K207" s="2"/>
-      <c r="L207" s="2"/>
-      <c r="M207" s="2"/>
-      <c r="N207" s="2"/>
-      <c r="O207" s="2"/>
-      <c r="P207" s="2"/>
-      <c r="Q207" s="2"/>
-      <c r="R207" s="2"/>
-      <c r="S207" s="2"/>
-      <c r="T207" s="2"/>
-      <c r="U207" s="2"/>
-      <c r="V207" s="2"/>
-      <c r="W207" s="2"/>
-    </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
-      <c r="F208" s="2"/>
-      <c r="G208" s="2"/>
-      <c r="H208" s="2"/>
-      <c r="I208" s="2"/>
-      <c r="J208" s="2"/>
-      <c r="K208" s="2"/>
-      <c r="L208" s="2"/>
-      <c r="M208" s="2"/>
-      <c r="N208" s="2"/>
-      <c r="O208" s="2"/>
-      <c r="P208" s="2"/>
-      <c r="Q208" s="2"/>
-      <c r="R208" s="2"/>
-      <c r="S208" s="2"/>
-      <c r="T208" s="2"/>
-      <c r="U208" s="2"/>
-      <c r="V208" s="2"/>
-      <c r="W208" s="2"/>
-    </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-      <c r="F209" s="2"/>
-      <c r="G209" s="2"/>
-      <c r="H209" s="2"/>
-      <c r="I209" s="2"/>
-      <c r="J209" s="2"/>
-      <c r="K209" s="2"/>
-      <c r="L209" s="2"/>
-      <c r="M209" s="2"/>
-      <c r="N209" s="2"/>
-      <c r="O209" s="2"/>
-      <c r="P209" s="2"/>
-      <c r="Q209" s="2"/>
-      <c r="R209" s="2"/>
-      <c r="S209" s="2"/>
-      <c r="T209" s="2"/>
-      <c r="U209" s="2"/>
-      <c r="V209" s="2"/>
-      <c r="W209" s="2"/>
-    </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2"/>
-      <c r="I210" s="2"/>
-      <c r="J210" s="2"/>
-      <c r="K210" s="2"/>
-      <c r="L210" s="2"/>
-      <c r="M210" s="2"/>
-      <c r="N210" s="2"/>
-      <c r="O210" s="2"/>
-      <c r="P210" s="2"/>
-      <c r="Q210" s="2"/>
-      <c r="R210" s="2"/>
-      <c r="S210" s="2"/>
-      <c r="T210" s="2"/>
-      <c r="U210" s="2"/>
-      <c r="V210" s="2"/>
-      <c r="W210" s="2"/>
-    </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
-      <c r="I211" s="2"/>
-      <c r="J211" s="2"/>
-      <c r="K211" s="2"/>
-      <c r="L211" s="2"/>
-      <c r="M211" s="2"/>
-      <c r="N211" s="2"/>
-      <c r="O211" s="2"/>
-      <c r="P211" s="2"/>
-      <c r="Q211" s="2"/>
-      <c r="R211" s="2"/>
-      <c r="S211" s="2"/>
-      <c r="T211" s="2"/>
-      <c r="U211" s="2"/>
-      <c r="V211" s="2"/>
-      <c r="W211" s="2"/>
-    </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
-      <c r="I212" s="2"/>
-      <c r="J212" s="2"/>
-      <c r="K212" s="2"/>
-      <c r="L212" s="2"/>
-      <c r="M212" s="2"/>
-      <c r="N212" s="2"/>
-      <c r="O212" s="2"/>
-      <c r="P212" s="2"/>
-      <c r="Q212" s="2"/>
-      <c r="R212" s="2"/>
-      <c r="S212" s="2"/>
-      <c r="T212" s="2"/>
-      <c r="U212" s="2"/>
-      <c r="V212" s="2"/>
-      <c r="W212" s="2"/>
-    </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
-      <c r="I213" s="2"/>
-      <c r="J213" s="2"/>
-      <c r="K213" s="2"/>
-      <c r="L213" s="2"/>
-      <c r="M213" s="2"/>
-      <c r="N213" s="2"/>
-      <c r="O213" s="2"/>
-      <c r="P213" s="2"/>
-      <c r="Q213" s="2"/>
-      <c r="R213" s="2"/>
-      <c r="S213" s="2"/>
-      <c r="T213" s="2"/>
-      <c r="U213" s="2"/>
-      <c r="V213" s="2"/>
-      <c r="W213" s="2"/>
-    </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
-      <c r="I214" s="2"/>
-      <c r="J214" s="2"/>
-      <c r="K214" s="2"/>
-      <c r="L214" s="2"/>
-      <c r="M214" s="2"/>
-      <c r="N214" s="2"/>
-      <c r="O214" s="2"/>
-      <c r="P214" s="2"/>
-      <c r="Q214" s="2"/>
-      <c r="R214" s="2"/>
-      <c r="S214" s="2"/>
-      <c r="T214" s="2"/>
-      <c r="U214" s="2"/>
-      <c r="V214" s="2"/>
-      <c r="W214" s="2"/>
-    </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
-      <c r="F215" s="2"/>
-      <c r="G215" s="2"/>
-      <c r="H215" s="2"/>
-      <c r="I215" s="2"/>
-      <c r="J215" s="2"/>
-      <c r="K215" s="2"/>
-      <c r="L215" s="2"/>
-      <c r="M215" s="2"/>
-      <c r="N215" s="2"/>
-      <c r="O215" s="2"/>
-      <c r="P215" s="2"/>
-      <c r="Q215" s="2"/>
-      <c r="R215" s="2"/>
-      <c r="S215" s="2"/>
-      <c r="T215" s="2"/>
-      <c r="U215" s="2"/>
-      <c r="V215" s="2"/>
-      <c r="W215" s="2"/>
-    </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
-      <c r="F216" s="2"/>
-      <c r="G216" s="2"/>
-      <c r="H216" s="2"/>
-      <c r="I216" s="2"/>
-      <c r="J216" s="2"/>
-      <c r="K216" s="2"/>
-      <c r="L216" s="2"/>
-      <c r="M216" s="2"/>
-      <c r="N216" s="2"/>
-      <c r="O216" s="2"/>
-      <c r="P216" s="2"/>
-      <c r="Q216" s="2"/>
-      <c r="R216" s="2"/>
-      <c r="S216" s="2"/>
-      <c r="T216" s="2"/>
-      <c r="U216" s="2"/>
-      <c r="V216" s="2"/>
-      <c r="W216" s="2"/>
-    </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
-      <c r="I217" s="2"/>
-      <c r="J217" s="2"/>
-      <c r="K217" s="2"/>
-      <c r="L217" s="2"/>
-      <c r="M217" s="2"/>
-      <c r="N217" s="2"/>
-      <c r="O217" s="2"/>
-      <c r="P217" s="2"/>
-      <c r="Q217" s="2"/>
-      <c r="R217" s="2"/>
-      <c r="S217" s="2"/>
-      <c r="T217" s="2"/>
-      <c r="U217" s="2"/>
-      <c r="V217" s="2"/>
-      <c r="W217" s="2"/>
-    </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
-      <c r="I218" s="2"/>
-      <c r="J218" s="2"/>
-      <c r="K218" s="2"/>
-      <c r="L218" s="2"/>
-      <c r="M218" s="2"/>
-      <c r="N218" s="2"/>
-      <c r="O218" s="2"/>
-      <c r="P218" s="2"/>
-      <c r="Q218" s="2"/>
-      <c r="R218" s="2"/>
-      <c r="S218" s="2"/>
-      <c r="T218" s="2"/>
-      <c r="U218" s="2"/>
-      <c r="V218" s="2"/>
-      <c r="W218" s="2"/>
-    </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
-      <c r="H219" s="2"/>
-      <c r="I219" s="2"/>
-      <c r="J219" s="2"/>
-      <c r="K219" s="2"/>
-      <c r="L219" s="2"/>
-      <c r="M219" s="2"/>
-      <c r="N219" s="2"/>
-      <c r="O219" s="2"/>
-      <c r="P219" s="2"/>
-      <c r="Q219" s="2"/>
-      <c r="R219" s="2"/>
-      <c r="S219" s="2"/>
-      <c r="T219" s="2"/>
-      <c r="U219" s="2"/>
-      <c r="V219" s="2"/>
-      <c r="W219" s="2"/>
-    </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
-      <c r="H220" s="2"/>
-      <c r="I220" s="2"/>
-      <c r="J220" s="2"/>
-      <c r="K220" s="2"/>
-      <c r="L220" s="2"/>
-      <c r="M220" s="2"/>
-      <c r="N220" s="2"/>
-      <c r="O220" s="2"/>
-      <c r="P220" s="2"/>
-      <c r="Q220" s="2"/>
-      <c r="R220" s="2"/>
-      <c r="S220" s="2"/>
-      <c r="T220" s="2"/>
-      <c r="U220" s="2"/>
-      <c r="V220" s="2"/>
-      <c r="W220" s="2"/>
-    </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
-      <c r="F221" s="2"/>
-      <c r="G221" s="2"/>
-      <c r="H221" s="2"/>
-      <c r="I221" s="2"/>
-      <c r="J221" s="2"/>
-      <c r="K221" s="2"/>
-      <c r="L221" s="2"/>
-      <c r="M221" s="2"/>
-      <c r="N221" s="2"/>
-      <c r="O221" s="2"/>
-      <c r="P221" s="2"/>
-      <c r="Q221" s="2"/>
-      <c r="R221" s="2"/>
-      <c r="S221" s="2"/>
-      <c r="T221" s="2"/>
-      <c r="U221" s="2"/>
-      <c r="V221" s="2"/>
-      <c r="W221" s="2"/>
-    </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="2"/>
-      <c r="G222" s="2"/>
-      <c r="H222" s="2"/>
-      <c r="I222" s="2"/>
-      <c r="J222" s="2"/>
-      <c r="K222" s="2"/>
-      <c r="L222" s="2"/>
-      <c r="M222" s="2"/>
-      <c r="N222" s="2"/>
-      <c r="O222" s="2"/>
-      <c r="P222" s="2"/>
-      <c r="Q222" s="2"/>
-      <c r="R222" s="2"/>
-      <c r="S222" s="2"/>
-      <c r="T222" s="2"/>
-      <c r="U222" s="2"/>
-      <c r="V222" s="2"/>
-      <c r="W222" s="2"/>
-    </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
-      <c r="G223" s="2"/>
-      <c r="H223" s="2"/>
-      <c r="I223" s="2"/>
-      <c r="J223" s="2"/>
-      <c r="K223" s="2"/>
-      <c r="L223" s="2"/>
-      <c r="M223" s="2"/>
-      <c r="N223" s="2"/>
-      <c r="O223" s="2"/>
-      <c r="P223" s="2"/>
-      <c r="Q223" s="2"/>
-      <c r="R223" s="2"/>
-      <c r="S223" s="2"/>
-      <c r="T223" s="2"/>
-      <c r="U223" s="2"/>
-      <c r="V223" s="2"/>
-      <c r="W223" s="2"/>
-    </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
-      <c r="H224" s="2"/>
-      <c r="I224" s="2"/>
-      <c r="J224" s="2"/>
-      <c r="K224" s="2"/>
-      <c r="L224" s="2"/>
-      <c r="M224" s="2"/>
-      <c r="N224" s="2"/>
-      <c r="O224" s="2"/>
-      <c r="P224" s="2"/>
-      <c r="Q224" s="2"/>
-      <c r="R224" s="2"/>
-      <c r="S224" s="2"/>
-      <c r="T224" s="2"/>
-      <c r="U224" s="2"/>
-      <c r="V224" s="2"/>
-      <c r="W224" s="2"/>
-    </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="2"/>
-      <c r="J225" s="2"/>
-      <c r="K225" s="2"/>
-      <c r="L225" s="2"/>
-      <c r="M225" s="2"/>
-      <c r="N225" s="2"/>
-      <c r="O225" s="2"/>
-      <c r="P225" s="2"/>
-      <c r="Q225" s="2"/>
-      <c r="R225" s="2"/>
-      <c r="S225" s="2"/>
-      <c r="T225" s="2"/>
-      <c r="U225" s="2"/>
-      <c r="V225" s="2"/>
-      <c r="W225" s="2"/>
-    </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
-      <c r="I226" s="2"/>
-      <c r="J226" s="2"/>
-      <c r="K226" s="2"/>
-      <c r="L226" s="2"/>
-      <c r="M226" s="2"/>
-      <c r="N226" s="2"/>
-      <c r="O226" s="2"/>
-      <c r="P226" s="2"/>
-      <c r="Q226" s="2"/>
-      <c r="R226" s="2"/>
-      <c r="S226" s="2"/>
-      <c r="T226" s="2"/>
-      <c r="U226" s="2"/>
-      <c r="V226" s="2"/>
-      <c r="W226" s="2"/>
-    </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="2"/>
-      <c r="J227" s="2"/>
-      <c r="K227" s="2"/>
-      <c r="L227" s="2"/>
-      <c r="M227" s="2"/>
-      <c r="N227" s="2"/>
-      <c r="O227" s="2"/>
-      <c r="P227" s="2"/>
-      <c r="Q227" s="2"/>
-      <c r="R227" s="2"/>
-      <c r="S227" s="2"/>
-      <c r="T227" s="2"/>
-      <c r="U227" s="2"/>
-      <c r="V227" s="2"/>
-      <c r="W227" s="2"/>
-    </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2"/>
-      <c r="I228" s="2"/>
-      <c r="J228" s="2"/>
-      <c r="K228" s="2"/>
-      <c r="L228" s="2"/>
-      <c r="M228" s="2"/>
-      <c r="N228" s="2"/>
-      <c r="O228" s="2"/>
-      <c r="P228" s="2"/>
-      <c r="Q228" s="2"/>
-      <c r="R228" s="2"/>
-      <c r="S228" s="2"/>
-      <c r="T228" s="2"/>
-      <c r="U228" s="2"/>
-      <c r="V228" s="2"/>
-      <c r="W228" s="2"/>
-    </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
-      <c r="I229" s="2"/>
-      <c r="J229" s="2"/>
-      <c r="K229" s="2"/>
-      <c r="L229" s="2"/>
-      <c r="M229" s="2"/>
-      <c r="N229" s="2"/>
-      <c r="O229" s="2"/>
-      <c r="P229" s="2"/>
-      <c r="Q229" s="2"/>
-      <c r="R229" s="2"/>
-      <c r="S229" s="2"/>
-      <c r="T229" s="2"/>
-      <c r="U229" s="2"/>
-      <c r="V229" s="2"/>
-      <c r="W229" s="2"/>
-    </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
-      <c r="I230" s="2"/>
-      <c r="J230" s="2"/>
-      <c r="K230" s="2"/>
-      <c r="L230" s="2"/>
-      <c r="M230" s="2"/>
-      <c r="N230" s="2"/>
-      <c r="O230" s="2"/>
-      <c r="P230" s="2"/>
-      <c r="Q230" s="2"/>
-      <c r="R230" s="2"/>
-      <c r="S230" s="2"/>
-      <c r="T230" s="2"/>
-      <c r="U230" s="2"/>
-      <c r="V230" s="2"/>
-      <c r="W230" s="2"/>
-    </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
-      <c r="I231" s="2"/>
-      <c r="J231" s="2"/>
-      <c r="K231" s="2"/>
-      <c r="L231" s="2"/>
-      <c r="M231" s="2"/>
-      <c r="N231" s="2"/>
-      <c r="O231" s="2"/>
-      <c r="P231" s="2"/>
-      <c r="Q231" s="2"/>
-      <c r="R231" s="2"/>
-      <c r="S231" s="2"/>
-      <c r="T231" s="2"/>
-      <c r="U231" s="2"/>
-      <c r="V231" s="2"/>
-      <c r="W231" s="2"/>
-    </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
-      <c r="I232" s="2"/>
-      <c r="J232" s="2"/>
-      <c r="K232" s="2"/>
-      <c r="L232" s="2"/>
-      <c r="M232" s="2"/>
-      <c r="N232" s="2"/>
-      <c r="O232" s="2"/>
-      <c r="P232" s="2"/>
-      <c r="Q232" s="2"/>
-      <c r="R232" s="2"/>
-      <c r="S232" s="2"/>
-      <c r="T232" s="2"/>
-      <c r="U232" s="2"/>
-      <c r="V232" s="2"/>
-      <c r="W232" s="2"/>
-    </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
-      <c r="I233" s="2"/>
-      <c r="J233" s="2"/>
-      <c r="K233" s="2"/>
-      <c r="L233" s="2"/>
-      <c r="M233" s="2"/>
-      <c r="N233" s="2"/>
-      <c r="O233" s="2"/>
-      <c r="P233" s="2"/>
-      <c r="Q233" s="2"/>
-      <c r="R233" s="2"/>
-      <c r="S233" s="2"/>
-      <c r="T233" s="2"/>
-      <c r="U233" s="2"/>
-      <c r="V233" s="2"/>
-      <c r="W233" s="2"/>
-    </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
-      <c r="G234" s="2"/>
-      <c r="H234" s="2"/>
-      <c r="I234" s="2"/>
-      <c r="J234" s="2"/>
-      <c r="K234" s="2"/>
-      <c r="L234" s="2"/>
-      <c r="M234" s="2"/>
-      <c r="N234" s="2"/>
-      <c r="O234" s="2"/>
-      <c r="P234" s="2"/>
-      <c r="Q234" s="2"/>
-      <c r="R234" s="2"/>
-      <c r="S234" s="2"/>
-      <c r="T234" s="2"/>
-      <c r="U234" s="2"/>
-      <c r="V234" s="2"/>
-      <c r="W234" s="2"/>
-    </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
-      <c r="H235" s="2"/>
-      <c r="I235" s="2"/>
-      <c r="J235" s="2"/>
-      <c r="K235" s="2"/>
-      <c r="L235" s="2"/>
-      <c r="M235" s="2"/>
-      <c r="N235" s="2"/>
-      <c r="O235" s="2"/>
-      <c r="P235" s="2"/>
-      <c r="Q235" s="2"/>
-      <c r="R235" s="2"/>
-      <c r="S235" s="2"/>
-      <c r="T235" s="2"/>
-      <c r="U235" s="2"/>
-      <c r="V235" s="2"/>
-      <c r="W235" s="2"/>
-    </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
-      <c r="F236" s="2"/>
-      <c r="G236" s="2"/>
-      <c r="H236" s="2"/>
-      <c r="I236" s="2"/>
-      <c r="J236" s="2"/>
-      <c r="K236" s="2"/>
-      <c r="L236" s="2"/>
-      <c r="M236" s="2"/>
-      <c r="N236" s="2"/>
-      <c r="O236" s="2"/>
-      <c r="P236" s="2"/>
-      <c r="Q236" s="2"/>
-      <c r="R236" s="2"/>
-      <c r="S236" s="2"/>
-      <c r="T236" s="2"/>
-      <c r="U236" s="2"/>
-      <c r="V236" s="2"/>
-      <c r="W236" s="2"/>
-    </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
-      <c r="F237" s="2"/>
-      <c r="G237" s="2"/>
-      <c r="H237" s="2"/>
-      <c r="I237" s="2"/>
-      <c r="J237" s="2"/>
-      <c r="K237" s="2"/>
-      <c r="L237" s="2"/>
-      <c r="M237" s="2"/>
-      <c r="N237" s="2"/>
-      <c r="O237" s="2"/>
-      <c r="P237" s="2"/>
-      <c r="Q237" s="2"/>
-      <c r="R237" s="2"/>
-      <c r="S237" s="2"/>
-      <c r="T237" s="2"/>
-      <c r="U237" s="2"/>
-      <c r="V237" s="2"/>
-      <c r="W237" s="2"/>
-    </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
-      <c r="F238" s="2"/>
-      <c r="G238" s="2"/>
-      <c r="H238" s="2"/>
-      <c r="I238" s="2"/>
-      <c r="J238" s="2"/>
-      <c r="K238" s="2"/>
-      <c r="L238" s="2"/>
-      <c r="M238" s="2"/>
-      <c r="N238" s="2"/>
-      <c r="O238" s="2"/>
-      <c r="P238" s="2"/>
-      <c r="Q238" s="2"/>
-      <c r="R238" s="2"/>
-      <c r="S238" s="2"/>
-      <c r="T238" s="2"/>
-      <c r="U238" s="2"/>
-      <c r="V238" s="2"/>
-      <c r="W238" s="2"/>
-    </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
-      <c r="G239" s="2"/>
-      <c r="H239" s="2"/>
-      <c r="I239" s="2"/>
-      <c r="J239" s="2"/>
-      <c r="K239" s="2"/>
-      <c r="L239" s="2"/>
-      <c r="M239" s="2"/>
-      <c r="N239" s="2"/>
-      <c r="O239" s="2"/>
-      <c r="P239" s="2"/>
-      <c r="Q239" s="2"/>
-      <c r="R239" s="2"/>
-      <c r="S239" s="2"/>
-      <c r="T239" s="2"/>
-      <c r="U239" s="2"/>
-      <c r="V239" s="2"/>
-      <c r="W239" s="2"/>
-    </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-      <c r="F240" s="2"/>
-      <c r="G240" s="2"/>
-      <c r="H240" s="2"/>
-      <c r="I240" s="2"/>
-      <c r="J240" s="2"/>
-      <c r="K240" s="2"/>
-      <c r="L240" s="2"/>
-      <c r="M240" s="2"/>
-      <c r="N240" s="2"/>
-      <c r="O240" s="2"/>
-      <c r="P240" s="2"/>
-      <c r="Q240" s="2"/>
-      <c r="R240" s="2"/>
-      <c r="S240" s="2"/>
-      <c r="T240" s="2"/>
-      <c r="U240" s="2"/>
-      <c r="V240" s="2"/>
-      <c r="W240" s="2"/>
-    </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
-      <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
-      <c r="F241" s="2"/>
-      <c r="G241" s="2"/>
-      <c r="H241" s="2"/>
-      <c r="I241" s="2"/>
-      <c r="J241" s="2"/>
-      <c r="K241" s="2"/>
-      <c r="L241" s="2"/>
-      <c r="M241" s="2"/>
-      <c r="N241" s="2"/>
-      <c r="O241" s="2"/>
-      <c r="P241" s="2"/>
-      <c r="Q241" s="2"/>
-      <c r="R241" s="2"/>
-      <c r="S241" s="2"/>
-      <c r="T241" s="2"/>
-      <c r="U241" s="2"/>
-      <c r="V241" s="2"/>
-      <c r="W241" s="2"/>
-    </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
-      <c r="F242" s="2"/>
-      <c r="G242" s="2"/>
-      <c r="H242" s="2"/>
-      <c r="I242" s="2"/>
-      <c r="J242" s="2"/>
-      <c r="K242" s="2"/>
-      <c r="L242" s="2"/>
-      <c r="M242" s="2"/>
-      <c r="N242" s="2"/>
-      <c r="O242" s="2"/>
-      <c r="P242" s="2"/>
-      <c r="Q242" s="2"/>
-      <c r="R242" s="2"/>
-      <c r="S242" s="2"/>
-      <c r="T242" s="2"/>
-      <c r="U242" s="2"/>
-      <c r="V242" s="2"/>
-      <c r="W242" s="2"/>
-    </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A243" s="2"/>
-      <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
-      <c r="D243" s="2"/>
-      <c r="E243" s="2"/>
-      <c r="F243" s="2"/>
-      <c r="G243" s="2"/>
-      <c r="H243" s="2"/>
-      <c r="I243" s="2"/>
-      <c r="J243" s="2"/>
-      <c r="K243" s="2"/>
-      <c r="L243" s="2"/>
-      <c r="M243" s="2"/>
-      <c r="N243" s="2"/>
-      <c r="O243" s="2"/>
-      <c r="P243" s="2"/>
-      <c r="Q243" s="2"/>
-      <c r="R243" s="2"/>
-      <c r="S243" s="2"/>
-      <c r="T243" s="2"/>
-      <c r="U243" s="2"/>
-      <c r="V243" s="2"/>
-      <c r="W243" s="2"/>
-    </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A244" s="2"/>
-      <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
-      <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
-      <c r="G244" s="2"/>
-      <c r="H244" s="2"/>
-      <c r="I244" s="2"/>
-      <c r="J244" s="2"/>
-      <c r="K244" s="2"/>
-      <c r="L244" s="2"/>
-      <c r="M244" s="2"/>
-      <c r="N244" s="2"/>
-      <c r="O244" s="2"/>
-      <c r="P244" s="2"/>
-      <c r="Q244" s="2"/>
-      <c r="R244" s="2"/>
-      <c r="S244" s="2"/>
-      <c r="T244" s="2"/>
-      <c r="U244" s="2"/>
-      <c r="V244" s="2"/>
-      <c r="W244" s="2"/>
-    </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
-      <c r="E245" s="2"/>
-      <c r="F245" s="2"/>
-      <c r="G245" s="2"/>
-      <c r="H245" s="2"/>
-      <c r="I245" s="2"/>
-      <c r="J245" s="2"/>
-      <c r="K245" s="2"/>
-      <c r="L245" s="2"/>
-      <c r="M245" s="2"/>
-      <c r="N245" s="2"/>
-      <c r="O245" s="2"/>
-      <c r="P245" s="2"/>
-      <c r="Q245" s="2"/>
-      <c r="R245" s="2"/>
-      <c r="S245" s="2"/>
-      <c r="T245" s="2"/>
-      <c r="U245" s="2"/>
-      <c r="V245" s="2"/>
-      <c r="W245" s="2"/>
-    </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A246" s="2"/>
-      <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
-      <c r="E246" s="2"/>
-      <c r="F246" s="2"/>
-      <c r="G246" s="2"/>
-      <c r="H246" s="2"/>
-      <c r="I246" s="2"/>
-      <c r="J246" s="2"/>
-      <c r="K246" s="2"/>
-      <c r="L246" s="2"/>
-      <c r="M246" s="2"/>
-      <c r="N246" s="2"/>
-      <c r="O246" s="2"/>
-      <c r="P246" s="2"/>
-      <c r="Q246" s="2"/>
-      <c r="R246" s="2"/>
-      <c r="S246" s="2"/>
-      <c r="T246" s="2"/>
-      <c r="U246" s="2"/>
-      <c r="V246" s="2"/>
-      <c r="W246" s="2"/>
-    </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A247" s="2"/>
-      <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
-      <c r="D247" s="2"/>
-      <c r="E247" s="2"/>
-      <c r="F247" s="2"/>
-      <c r="G247" s="2"/>
-      <c r="H247" s="2"/>
-      <c r="I247" s="2"/>
-      <c r="J247" s="2"/>
-      <c r="K247" s="2"/>
-      <c r="L247" s="2"/>
-      <c r="M247" s="2"/>
-      <c r="N247" s="2"/>
-      <c r="O247" s="2"/>
-      <c r="P247" s="2"/>
-      <c r="Q247" s="2"/>
-      <c r="R247" s="2"/>
-      <c r="S247" s="2"/>
-      <c r="T247" s="2"/>
-      <c r="U247" s="2"/>
-      <c r="V247" s="2"/>
-      <c r="W247" s="2"/>
-    </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
-      <c r="D248" s="2"/>
-      <c r="E248" s="2"/>
-      <c r="F248" s="2"/>
-      <c r="G248" s="2"/>
-      <c r="H248" s="2"/>
-      <c r="I248" s="2"/>
-      <c r="J248" s="2"/>
-      <c r="K248" s="2"/>
-      <c r="L248" s="2"/>
-      <c r="M248" s="2"/>
-      <c r="N248" s="2"/>
-      <c r="O248" s="2"/>
-      <c r="P248" s="2"/>
-      <c r="Q248" s="2"/>
-      <c r="R248" s="2"/>
-      <c r="S248" s="2"/>
-      <c r="T248" s="2"/>
-      <c r="U248" s="2"/>
-      <c r="V248" s="2"/>
-      <c r="W248" s="2"/>
-    </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
-      <c r="E249" s="2"/>
-      <c r="F249" s="2"/>
-      <c r="G249" s="2"/>
-      <c r="H249" s="2"/>
-      <c r="I249" s="2"/>
-      <c r="J249" s="2"/>
-      <c r="K249" s="2"/>
-      <c r="L249" s="2"/>
-      <c r="M249" s="2"/>
-      <c r="N249" s="2"/>
-      <c r="O249" s="2"/>
-      <c r="P249" s="2"/>
-      <c r="Q249" s="2"/>
-      <c r="R249" s="2"/>
-      <c r="S249" s="2"/>
-      <c r="T249" s="2"/>
-      <c r="U249" s="2"/>
-      <c r="V249" s="2"/>
-      <c r="W249" s="2"/>
-    </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
-      <c r="C250" s="2"/>
-      <c r="D250" s="2"/>
-      <c r="E250" s="2"/>
-      <c r="F250" s="2"/>
-      <c r="G250" s="2"/>
-      <c r="H250" s="2"/>
-      <c r="I250" s="2"/>
-      <c r="J250" s="2"/>
-      <c r="K250" s="2"/>
-      <c r="L250" s="2"/>
-      <c r="M250" s="2"/>
-      <c r="N250" s="2"/>
-      <c r="O250" s="2"/>
-      <c r="P250" s="2"/>
-      <c r="Q250" s="2"/>
-      <c r="R250" s="2"/>
-      <c r="S250" s="2"/>
-      <c r="T250" s="2"/>
-      <c r="U250" s="2"/>
-      <c r="V250" s="2"/>
-      <c r="W250" s="2"/>
-    </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A251" s="2"/>
-      <c r="B251" s="2"/>
-      <c r="C251" s="2"/>
-      <c r="D251" s="2"/>
-      <c r="E251" s="2"/>
-      <c r="F251" s="2"/>
-      <c r="G251" s="2"/>
-      <c r="H251" s="2"/>
-      <c r="I251" s="2"/>
-      <c r="J251" s="2"/>
-      <c r="K251" s="2"/>
-      <c r="L251" s="2"/>
-      <c r="M251" s="2"/>
-      <c r="N251" s="2"/>
-      <c r="O251" s="2"/>
-      <c r="P251" s="2"/>
-      <c r="Q251" s="2"/>
-      <c r="R251" s="2"/>
-      <c r="S251" s="2"/>
-      <c r="T251" s="2"/>
-      <c r="U251" s="2"/>
-      <c r="V251" s="2"/>
-      <c r="W251" s="2"/>
-    </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
-      <c r="E252" s="2"/>
-      <c r="F252" s="2"/>
-      <c r="G252" s="2"/>
-      <c r="H252" s="2"/>
-      <c r="I252" s="2"/>
-      <c r="J252" s="2"/>
-      <c r="K252" s="2"/>
-      <c r="L252" s="2"/>
-      <c r="M252" s="2"/>
-      <c r="N252" s="2"/>
-      <c r="O252" s="2"/>
-      <c r="P252" s="2"/>
-      <c r="Q252" s="2"/>
-      <c r="R252" s="2"/>
-      <c r="S252" s="2"/>
-      <c r="T252" s="2"/>
-      <c r="U252" s="2"/>
-      <c r="V252" s="2"/>
-      <c r="W252" s="2"/>
-    </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
-      <c r="D253" s="2"/>
-      <c r="E253" s="2"/>
-      <c r="F253" s="2"/>
-      <c r="G253" s="2"/>
-      <c r="H253" s="2"/>
-      <c r="I253" s="2"/>
-      <c r="J253" s="2"/>
-      <c r="K253" s="2"/>
-      <c r="L253" s="2"/>
-      <c r="M253" s="2"/>
-      <c r="N253" s="2"/>
-      <c r="O253" s="2"/>
-      <c r="P253" s="2"/>
-      <c r="Q253" s="2"/>
-      <c r="R253" s="2"/>
-      <c r="S253" s="2"/>
-      <c r="T253" s="2"/>
-      <c r="U253" s="2"/>
-      <c r="V253" s="2"/>
-      <c r="W253" s="2"/>
-    </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
-      <c r="E254" s="2"/>
-      <c r="F254" s="2"/>
-      <c r="G254" s="2"/>
-      <c r="H254" s="2"/>
-      <c r="I254" s="2"/>
-      <c r="J254" s="2"/>
-      <c r="K254" s="2"/>
-      <c r="L254" s="2"/>
-      <c r="M254" s="2"/>
-      <c r="N254" s="2"/>
-      <c r="O254" s="2"/>
-      <c r="P254" s="2"/>
-      <c r="Q254" s="2"/>
-      <c r="R254" s="2"/>
-      <c r="S254" s="2"/>
-      <c r="T254" s="2"/>
-      <c r="U254" s="2"/>
-      <c r="V254" s="2"/>
-      <c r="W254" s="2"/>
-    </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
-      <c r="E255" s="2"/>
-      <c r="F255" s="2"/>
-      <c r="G255" s="2"/>
-      <c r="H255" s="2"/>
-      <c r="I255" s="2"/>
-      <c r="J255" s="2"/>
-      <c r="K255" s="2"/>
-      <c r="L255" s="2"/>
-      <c r="M255" s="2"/>
-      <c r="N255" s="2"/>
-      <c r="O255" s="2"/>
-      <c r="P255" s="2"/>
-      <c r="Q255" s="2"/>
-      <c r="R255" s="2"/>
-      <c r="S255" s="2"/>
-      <c r="T255" s="2"/>
-      <c r="U255" s="2"/>
-      <c r="V255" s="2"/>
-      <c r="W255" s="2"/>
-    </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
-      <c r="D256" s="2"/>
-      <c r="E256" s="2"/>
-      <c r="F256" s="2"/>
-      <c r="G256" s="2"/>
-      <c r="H256" s="2"/>
-      <c r="I256" s="2"/>
-      <c r="J256" s="2"/>
-      <c r="K256" s="2"/>
-      <c r="L256" s="2"/>
-      <c r="M256" s="2"/>
-      <c r="N256" s="2"/>
-      <c r="O256" s="2"/>
-      <c r="P256" s="2"/>
-      <c r="Q256" s="2"/>
-      <c r="R256" s="2"/>
-      <c r="S256" s="2"/>
-      <c r="T256" s="2"/>
-      <c r="U256" s="2"/>
-      <c r="V256" s="2"/>
-      <c r="W256" s="2"/>
-    </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
-      <c r="C257" s="2"/>
-      <c r="D257" s="2"/>
-      <c r="E257" s="2"/>
-      <c r="F257" s="2"/>
-      <c r="G257" s="2"/>
-      <c r="H257" s="2"/>
-      <c r="I257" s="2"/>
-      <c r="J257" s="2"/>
-      <c r="K257" s="2"/>
-      <c r="L257" s="2"/>
-      <c r="M257" s="2"/>
-      <c r="N257" s="2"/>
-      <c r="O257" s="2"/>
-      <c r="P257" s="2"/>
-      <c r="Q257" s="2"/>
-      <c r="R257" s="2"/>
-      <c r="S257" s="2"/>
-      <c r="T257" s="2"/>
-      <c r="U257" s="2"/>
-      <c r="V257" s="2"/>
-      <c r="W257" s="2"/>
-    </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
-      <c r="D258" s="2"/>
-      <c r="E258" s="2"/>
-      <c r="F258" s="2"/>
-      <c r="G258" s="2"/>
-      <c r="H258" s="2"/>
-      <c r="I258" s="2"/>
-      <c r="J258" s="2"/>
-      <c r="K258" s="2"/>
-      <c r="L258" s="2"/>
-      <c r="M258" s="2"/>
-      <c r="N258" s="2"/>
-      <c r="O258" s="2"/>
-      <c r="P258" s="2"/>
-      <c r="Q258" s="2"/>
-      <c r="R258" s="2"/>
-      <c r="S258" s="2"/>
-      <c r="T258" s="2"/>
-      <c r="U258" s="2"/>
-      <c r="V258" s="2"/>
-      <c r="W258" s="2"/>
-    </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
-      <c r="D259" s="2"/>
-      <c r="E259" s="2"/>
-      <c r="F259" s="2"/>
-      <c r="G259" s="2"/>
-      <c r="H259" s="2"/>
-      <c r="I259" s="2"/>
-      <c r="J259" s="2"/>
-      <c r="K259" s="2"/>
-      <c r="L259" s="2"/>
-      <c r="M259" s="2"/>
-      <c r="N259" s="2"/>
-      <c r="O259" s="2"/>
-      <c r="P259" s="2"/>
-      <c r="Q259" s="2"/>
-      <c r="R259" s="2"/>
-      <c r="S259" s="2"/>
-      <c r="T259" s="2"/>
-      <c r="U259" s="2"/>
-      <c r="V259" s="2"/>
-      <c r="W259" s="2"/>
-    </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
-      <c r="D260" s="2"/>
-      <c r="E260" s="2"/>
-      <c r="F260" s="2"/>
-      <c r="G260" s="2"/>
-      <c r="H260" s="2"/>
-      <c r="I260" s="2"/>
-      <c r="J260" s="2"/>
-      <c r="K260" s="2"/>
-      <c r="L260" s="2"/>
-      <c r="M260" s="2"/>
-      <c r="N260" s="2"/>
-      <c r="O260" s="2"/>
-      <c r="P260" s="2"/>
-      <c r="Q260" s="2"/>
-      <c r="R260" s="2"/>
-      <c r="S260" s="2"/>
-      <c r="T260" s="2"/>
-      <c r="U260" s="2"/>
-      <c r="V260" s="2"/>
-      <c r="W260" s="2"/>
-    </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A261" s="2"/>
-      <c r="B261" s="2"/>
-      <c r="C261" s="2"/>
-      <c r="D261" s="2"/>
-      <c r="E261" s="2"/>
-      <c r="F261" s="2"/>
-      <c r="G261" s="2"/>
-      <c r="H261" s="2"/>
-      <c r="I261" s="2"/>
-      <c r="J261" s="2"/>
-      <c r="K261" s="2"/>
-      <c r="L261" s="2"/>
-      <c r="M261" s="2"/>
-      <c r="N261" s="2"/>
-      <c r="O261" s="2"/>
-      <c r="P261" s="2"/>
-      <c r="Q261" s="2"/>
-      <c r="R261" s="2"/>
-      <c r="S261" s="2"/>
-      <c r="T261" s="2"/>
-      <c r="U261" s="2"/>
-      <c r="V261" s="2"/>
-      <c r="W261" s="2"/>
-    </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
-      <c r="E262" s="2"/>
-      <c r="F262" s="2"/>
-      <c r="G262" s="2"/>
-      <c r="H262" s="2"/>
-      <c r="I262" s="2"/>
-      <c r="J262" s="2"/>
-      <c r="K262" s="2"/>
-      <c r="L262" s="2"/>
-      <c r="M262" s="2"/>
-      <c r="N262" s="2"/>
-      <c r="O262" s="2"/>
-      <c r="P262" s="2"/>
-      <c r="Q262" s="2"/>
-      <c r="R262" s="2"/>
-      <c r="S262" s="2"/>
-      <c r="T262" s="2"/>
-      <c r="U262" s="2"/>
-      <c r="V262" s="2"/>
-      <c r="W262" s="2"/>
-    </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
-      <c r="H263" s="2"/>
-      <c r="I263" s="2"/>
-      <c r="J263" s="2"/>
-      <c r="K263" s="2"/>
-      <c r="L263" s="2"/>
-      <c r="M263" s="2"/>
-      <c r="N263" s="2"/>
-      <c r="O263" s="2"/>
-      <c r="P263" s="2"/>
-      <c r="Q263" s="2"/>
-      <c r="R263" s="2"/>
-      <c r="S263" s="2"/>
-      <c r="T263" s="2"/>
-      <c r="U263" s="2"/>
-      <c r="V263" s="2"/>
-      <c r="W263" s="2"/>
-    </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
-      <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
-      <c r="F264" s="2"/>
-      <c r="G264" s="2"/>
-      <c r="H264" s="2"/>
-      <c r="I264" s="2"/>
-      <c r="J264" s="2"/>
-      <c r="K264" s="2"/>
-      <c r="L264" s="2"/>
-      <c r="M264" s="2"/>
-      <c r="N264" s="2"/>
-      <c r="O264" s="2"/>
-      <c r="P264" s="2"/>
-      <c r="Q264" s="2"/>
-      <c r="R264" s="2"/>
-      <c r="S264" s="2"/>
-      <c r="T264" s="2"/>
-      <c r="U264" s="2"/>
-      <c r="V264" s="2"/>
-      <c r="W264" s="2"/>
-    </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2"/>
-      <c r="C265" s="2"/>
-      <c r="D265" s="2"/>
-      <c r="E265" s="2"/>
-      <c r="F265" s="2"/>
-      <c r="G265" s="2"/>
-      <c r="H265" s="2"/>
-      <c r="I265" s="2"/>
-      <c r="J265" s="2"/>
-      <c r="K265" s="2"/>
-      <c r="L265" s="2"/>
-      <c r="M265" s="2"/>
-      <c r="N265" s="2"/>
-      <c r="O265" s="2"/>
-      <c r="P265" s="2"/>
-      <c r="Q265" s="2"/>
-      <c r="R265" s="2"/>
-      <c r="S265" s="2"/>
-      <c r="T265" s="2"/>
-      <c r="U265" s="2"/>
-      <c r="V265" s="2"/>
-      <c r="W265" s="2"/>
-    </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2"/>
-      <c r="C266" s="2"/>
-      <c r="D266" s="2"/>
-      <c r="E266" s="2"/>
-      <c r="F266" s="2"/>
-      <c r="G266" s="2"/>
-      <c r="H266" s="2"/>
-      <c r="I266" s="2"/>
-      <c r="J266" s="2"/>
-      <c r="K266" s="2"/>
-      <c r="L266" s="2"/>
-      <c r="M266" s="2"/>
-      <c r="N266" s="2"/>
-      <c r="O266" s="2"/>
-      <c r="P266" s="2"/>
-      <c r="Q266" s="2"/>
-      <c r="R266" s="2"/>
-      <c r="S266" s="2"/>
-      <c r="T266" s="2"/>
-      <c r="U266" s="2"/>
-      <c r="V266" s="2"/>
-      <c r="W266" s="2"/>
-    </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2"/>
-      <c r="C267" s="2"/>
-      <c r="D267" s="2"/>
-      <c r="E267" s="2"/>
-      <c r="F267" s="2"/>
-      <c r="G267" s="2"/>
-      <c r="H267" s="2"/>
-      <c r="I267" s="2"/>
-      <c r="J267" s="2"/>
-      <c r="K267" s="2"/>
-      <c r="L267" s="2"/>
-      <c r="M267" s="2"/>
-      <c r="N267" s="2"/>
-      <c r="O267" s="2"/>
-      <c r="P267" s="2"/>
-      <c r="Q267" s="2"/>
-      <c r="R267" s="2"/>
-      <c r="S267" s="2"/>
-      <c r="T267" s="2"/>
-      <c r="U267" s="2"/>
-      <c r="V267" s="2"/>
-      <c r="W267" s="2"/>
-    </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
-      <c r="F268" s="2"/>
-      <c r="G268" s="2"/>
-      <c r="H268" s="2"/>
-      <c r="I268" s="2"/>
-      <c r="J268" s="2"/>
-      <c r="K268" s="2"/>
-      <c r="L268" s="2"/>
-      <c r="M268" s="2"/>
-      <c r="N268" s="2"/>
-      <c r="O268" s="2"/>
-      <c r="P268" s="2"/>
-      <c r="Q268" s="2"/>
-      <c r="R268" s="2"/>
-      <c r="S268" s="2"/>
-      <c r="T268" s="2"/>
-      <c r="U268" s="2"/>
-      <c r="V268" s="2"/>
-      <c r="W268" s="2"/>
-    </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2"/>
-      <c r="C269" s="2"/>
-      <c r="D269" s="2"/>
-      <c r="E269" s="2"/>
-      <c r="F269" s="2"/>
-      <c r="G269" s="2"/>
-      <c r="H269" s="2"/>
-      <c r="I269" s="2"/>
-      <c r="J269" s="2"/>
-      <c r="K269" s="2"/>
-      <c r="L269" s="2"/>
-      <c r="M269" s="2"/>
-      <c r="N269" s="2"/>
-      <c r="O269" s="2"/>
-      <c r="P269" s="2"/>
-      <c r="Q269" s="2"/>
-      <c r="R269" s="2"/>
-      <c r="S269" s="2"/>
-      <c r="T269" s="2"/>
-      <c r="U269" s="2"/>
-      <c r="V269" s="2"/>
-      <c r="W269" s="2"/>
-    </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A270" s="2"/>
-      <c r="B270" s="2"/>
-      <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2"/>
-      <c r="F270" s="2"/>
-      <c r="G270" s="2"/>
-      <c r="H270" s="2"/>
-      <c r="I270" s="2"/>
-      <c r="J270" s="2"/>
-      <c r="K270" s="2"/>
-      <c r="L270" s="2"/>
-      <c r="M270" s="2"/>
-      <c r="N270" s="2"/>
-      <c r="O270" s="2"/>
-      <c r="P270" s="2"/>
-      <c r="Q270" s="2"/>
-      <c r="R270" s="2"/>
-      <c r="S270" s="2"/>
-      <c r="T270" s="2"/>
-      <c r="U270" s="2"/>
-      <c r="V270" s="2"/>
-      <c r="W270" s="2"/>
-    </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A271" s="2"/>
-      <c r="B271" s="2"/>
-      <c r="C271" s="2"/>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
-      <c r="F271" s="2"/>
-      <c r="G271" s="2"/>
-      <c r="H271" s="2"/>
-      <c r="I271" s="2"/>
-      <c r="J271" s="2"/>
-      <c r="K271" s="2"/>
-      <c r="L271" s="2"/>
-      <c r="M271" s="2"/>
-      <c r="N271" s="2"/>
-      <c r="O271" s="2"/>
-      <c r="P271" s="2"/>
-      <c r="Q271" s="2"/>
-      <c r="R271" s="2"/>
-      <c r="S271" s="2"/>
-      <c r="T271" s="2"/>
-      <c r="U271" s="2"/>
-      <c r="V271" s="2"/>
-      <c r="W271" s="2"/>
-    </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2"/>
-      <c r="C272" s="2"/>
-      <c r="D272" s="2"/>
-      <c r="E272" s="2"/>
-      <c r="F272" s="2"/>
-      <c r="G272" s="2"/>
-      <c r="H272" s="2"/>
-      <c r="I272" s="2"/>
-      <c r="J272" s="2"/>
-      <c r="K272" s="2"/>
-      <c r="L272" s="2"/>
-      <c r="M272" s="2"/>
-      <c r="N272" s="2"/>
-      <c r="O272" s="2"/>
-      <c r="P272" s="2"/>
-      <c r="Q272" s="2"/>
-      <c r="R272" s="2"/>
-      <c r="S272" s="2"/>
-      <c r="T272" s="2"/>
-      <c r="U272" s="2"/>
-      <c r="V272" s="2"/>
-      <c r="W272" s="2"/>
-    </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2"/>
-      <c r="C273" s="2"/>
-      <c r="D273" s="2"/>
-      <c r="E273" s="2"/>
-      <c r="F273" s="2"/>
-      <c r="G273" s="2"/>
-      <c r="H273" s="2"/>
-      <c r="I273" s="2"/>
-      <c r="J273" s="2"/>
-      <c r="K273" s="2"/>
-      <c r="L273" s="2"/>
-      <c r="M273" s="2"/>
-      <c r="N273" s="2"/>
-      <c r="O273" s="2"/>
-      <c r="P273" s="2"/>
-      <c r="Q273" s="2"/>
-      <c r="R273" s="2"/>
-      <c r="S273" s="2"/>
-      <c r="T273" s="2"/>
-      <c r="U273" s="2"/>
-      <c r="V273" s="2"/>
-      <c r="W273" s="2"/>
-    </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2"/>
-      <c r="C274" s="2"/>
-      <c r="D274" s="2"/>
-      <c r="E274" s="2"/>
-      <c r="F274" s="2"/>
-      <c r="G274" s="2"/>
-      <c r="H274" s="2"/>
-      <c r="I274" s="2"/>
-      <c r="J274" s="2"/>
-      <c r="K274" s="2"/>
-      <c r="L274" s="2"/>
-      <c r="M274" s="2"/>
-      <c r="N274" s="2"/>
-      <c r="O274" s="2"/>
-      <c r="P274" s="2"/>
-      <c r="Q274" s="2"/>
-      <c r="R274" s="2"/>
-      <c r="S274" s="2"/>
-      <c r="T274" s="2"/>
-      <c r="U274" s="2"/>
-      <c r="V274" s="2"/>
-      <c r="W274" s="2"/>
-    </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A275" s="2"/>
-      <c r="B275" s="2"/>
-      <c r="C275" s="2"/>
-      <c r="D275" s="2"/>
-      <c r="E275" s="2"/>
-      <c r="F275" s="2"/>
-      <c r="G275" s="2"/>
-      <c r="H275" s="2"/>
-      <c r="I275" s="2"/>
-      <c r="J275" s="2"/>
-      <c r="K275" s="2"/>
-      <c r="L275" s="2"/>
-      <c r="M275" s="2"/>
-      <c r="N275" s="2"/>
-      <c r="O275" s="2"/>
-      <c r="P275" s="2"/>
-      <c r="Q275" s="2"/>
-      <c r="R275" s="2"/>
-      <c r="S275" s="2"/>
-      <c r="T275" s="2"/>
-      <c r="U275" s="2"/>
-      <c r="V275" s="2"/>
-      <c r="W275" s="2"/>
-    </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A276" s="2"/>
-      <c r="B276" s="2"/>
-      <c r="C276" s="2"/>
-      <c r="D276" s="2"/>
-      <c r="E276" s="2"/>
-      <c r="F276" s="2"/>
-      <c r="G276" s="2"/>
-      <c r="H276" s="2"/>
-      <c r="I276" s="2"/>
-      <c r="J276" s="2"/>
-      <c r="K276" s="2"/>
-      <c r="L276" s="2"/>
-      <c r="M276" s="2"/>
-      <c r="N276" s="2"/>
-      <c r="O276" s="2"/>
-      <c r="P276" s="2"/>
-      <c r="Q276" s="2"/>
-      <c r="R276" s="2"/>
-      <c r="S276" s="2"/>
-      <c r="T276" s="2"/>
-      <c r="U276" s="2"/>
-      <c r="V276" s="2"/>
-      <c r="W276" s="2"/>
-    </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2"/>
-      <c r="C277" s="2"/>
-      <c r="D277" s="2"/>
-      <c r="E277" s="2"/>
-      <c r="F277" s="2"/>
-      <c r="G277" s="2"/>
-      <c r="H277" s="2"/>
-      <c r="I277" s="2"/>
-      <c r="J277" s="2"/>
-      <c r="K277" s="2"/>
-      <c r="L277" s="2"/>
-      <c r="M277" s="2"/>
-      <c r="N277" s="2"/>
-      <c r="O277" s="2"/>
-      <c r="P277" s="2"/>
-      <c r="Q277" s="2"/>
-      <c r="R277" s="2"/>
-      <c r="S277" s="2"/>
-      <c r="T277" s="2"/>
-      <c r="U277" s="2"/>
-      <c r="V277" s="2"/>
-      <c r="W277" s="2"/>
-    </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2"/>
-      <c r="C278" s="2"/>
-      <c r="D278" s="2"/>
-      <c r="E278" s="2"/>
-      <c r="F278" s="2"/>
-      <c r="G278" s="2"/>
-      <c r="H278" s="2"/>
-      <c r="I278" s="2"/>
-      <c r="J278" s="2"/>
-      <c r="K278" s="2"/>
-      <c r="L278" s="2"/>
-      <c r="M278" s="2"/>
-      <c r="N278" s="2"/>
-      <c r="O278" s="2"/>
-      <c r="P278" s="2"/>
-      <c r="Q278" s="2"/>
-      <c r="R278" s="2"/>
-      <c r="S278" s="2"/>
-      <c r="T278" s="2"/>
-      <c r="U278" s="2"/>
-      <c r="V278" s="2"/>
-      <c r="W278" s="2"/>
-    </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A279" s="2"/>
-      <c r="B279" s="2"/>
-      <c r="C279" s="2"/>
-      <c r="D279" s="2"/>
-      <c r="E279" s="2"/>
-      <c r="F279" s="2"/>
-      <c r="G279" s="2"/>
-      <c r="H279" s="2"/>
-      <c r="I279" s="2"/>
-      <c r="J279" s="2"/>
-      <c r="K279" s="2"/>
-      <c r="L279" s="2"/>
-      <c r="M279" s="2"/>
-      <c r="N279" s="2"/>
-      <c r="O279" s="2"/>
-      <c r="P279" s="2"/>
-      <c r="Q279" s="2"/>
-      <c r="R279" s="2"/>
-      <c r="S279" s="2"/>
-      <c r="T279" s="2"/>
-      <c r="U279" s="2"/>
-      <c r="V279" s="2"/>
-      <c r="W279" s="2"/>
-    </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A280" s="2"/>
-      <c r="B280" s="2"/>
-      <c r="C280" s="2"/>
-      <c r="D280" s="2"/>
-      <c r="E280" s="2"/>
-      <c r="F280" s="2"/>
-      <c r="G280" s="2"/>
-      <c r="H280" s="2"/>
-      <c r="I280" s="2"/>
-      <c r="J280" s="2"/>
-      <c r="K280" s="2"/>
-      <c r="L280" s="2"/>
-      <c r="M280" s="2"/>
-      <c r="N280" s="2"/>
-      <c r="O280" s="2"/>
-      <c r="P280" s="2"/>
-      <c r="Q280" s="2"/>
-      <c r="R280" s="2"/>
-      <c r="S280" s="2"/>
-      <c r="T280" s="2"/>
-      <c r="U280" s="2"/>
-      <c r="V280" s="2"/>
-      <c r="W280" s="2"/>
-    </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A281" s="2"/>
-      <c r="B281" s="2"/>
-      <c r="C281" s="2"/>
-      <c r="D281" s="2"/>
-      <c r="E281" s="2"/>
-      <c r="F281" s="2"/>
-      <c r="G281" s="2"/>
-      <c r="H281" s="2"/>
-      <c r="I281" s="2"/>
-      <c r="J281" s="2"/>
-      <c r="K281" s="2"/>
-      <c r="L281" s="2"/>
-      <c r="M281" s="2"/>
-      <c r="N281" s="2"/>
-      <c r="O281" s="2"/>
-      <c r="P281" s="2"/>
-      <c r="Q281" s="2"/>
-      <c r="R281" s="2"/>
-      <c r="S281" s="2"/>
-      <c r="T281" s="2"/>
-      <c r="U281" s="2"/>
-      <c r="V281" s="2"/>
-      <c r="W281" s="2"/>
-    </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A282" s="2"/>
-      <c r="B282" s="2"/>
-      <c r="C282" s="2"/>
-      <c r="D282" s="2"/>
-      <c r="E282" s="2"/>
-      <c r="F282" s="2"/>
-      <c r="G282" s="2"/>
-      <c r="H282" s="2"/>
-      <c r="I282" s="2"/>
-      <c r="J282" s="2"/>
-      <c r="K282" s="2"/>
-      <c r="L282" s="2"/>
-      <c r="M282" s="2"/>
-      <c r="N282" s="2"/>
-      <c r="O282" s="2"/>
-      <c r="P282" s="2"/>
-      <c r="Q282" s="2"/>
-      <c r="R282" s="2"/>
-      <c r="S282" s="2"/>
-      <c r="T282" s="2"/>
-      <c r="U282" s="2"/>
-      <c r="V282" s="2"/>
-      <c r="W282" s="2"/>
-    </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A283" s="2"/>
-      <c r="B283" s="2"/>
-      <c r="C283" s="2"/>
-      <c r="D283" s="2"/>
-      <c r="E283" s="2"/>
-      <c r="F283" s="2"/>
-      <c r="G283" s="2"/>
-      <c r="H283" s="2"/>
-      <c r="I283" s="2"/>
-      <c r="J283" s="2"/>
-      <c r="K283" s="2"/>
-      <c r="L283" s="2"/>
-      <c r="M283" s="2"/>
-      <c r="N283" s="2"/>
-      <c r="O283" s="2"/>
-      <c r="P283" s="2"/>
-      <c r="Q283" s="2"/>
-      <c r="R283" s="2"/>
-      <c r="S283" s="2"/>
-      <c r="T283" s="2"/>
-      <c r="U283" s="2"/>
-      <c r="V283" s="2"/>
-      <c r="W283" s="2"/>
-    </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A284" s="2"/>
-      <c r="B284" s="2"/>
-      <c r="C284" s="2"/>
-      <c r="D284" s="2"/>
-      <c r="E284" s="2"/>
-      <c r="F284" s="2"/>
-      <c r="G284" s="2"/>
-      <c r="H284" s="2"/>
-      <c r="I284" s="2"/>
-      <c r="J284" s="2"/>
-      <c r="K284" s="2"/>
-      <c r="L284" s="2"/>
-      <c r="M284" s="2"/>
-      <c r="N284" s="2"/>
-      <c r="O284" s="2"/>
-      <c r="P284" s="2"/>
-      <c r="Q284" s="2"/>
-      <c r="R284" s="2"/>
-      <c r="S284" s="2"/>
-      <c r="T284" s="2"/>
-      <c r="U284" s="2"/>
-      <c r="V284" s="2"/>
-      <c r="W284" s="2"/>
-    </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A285" s="2"/>
-      <c r="B285" s="2"/>
-      <c r="C285" s="2"/>
-      <c r="D285" s="2"/>
-      <c r="E285" s="2"/>
-      <c r="F285" s="2"/>
-      <c r="G285" s="2"/>
-      <c r="H285" s="2"/>
-      <c r="I285" s="2"/>
-      <c r="J285" s="2"/>
-      <c r="K285" s="2"/>
-      <c r="L285" s="2"/>
-      <c r="M285" s="2"/>
-      <c r="N285" s="2"/>
-      <c r="O285" s="2"/>
-      <c r="P285" s="2"/>
-      <c r="Q285" s="2"/>
-      <c r="R285" s="2"/>
-      <c r="S285" s="2"/>
-      <c r="T285" s="2"/>
-      <c r="U285" s="2"/>
-      <c r="V285" s="2"/>
-      <c r="W285" s="2"/>
-    </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A286" s="2"/>
-      <c r="B286" s="2"/>
-      <c r="C286" s="2"/>
-      <c r="D286" s="2"/>
-      <c r="E286" s="2"/>
-      <c r="F286" s="2"/>
-      <c r="G286" s="2"/>
-      <c r="H286" s="2"/>
-      <c r="I286" s="2"/>
-      <c r="J286" s="2"/>
-      <c r="K286" s="2"/>
-      <c r="L286" s="2"/>
-      <c r="M286" s="2"/>
-      <c r="N286" s="2"/>
-      <c r="O286" s="2"/>
-      <c r="P286" s="2"/>
-      <c r="Q286" s="2"/>
-      <c r="R286" s="2"/>
-      <c r="S286" s="2"/>
-      <c r="T286" s="2"/>
-      <c r="U286" s="2"/>
-      <c r="V286" s="2"/>
-      <c r="W286" s="2"/>
-    </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A287" s="2"/>
-      <c r="B287" s="2"/>
-      <c r="C287" s="2"/>
-      <c r="D287" s="2"/>
-      <c r="E287" s="2"/>
-      <c r="F287" s="2"/>
-      <c r="G287" s="2"/>
-      <c r="H287" s="2"/>
-      <c r="I287" s="2"/>
-      <c r="J287" s="2"/>
-      <c r="K287" s="2"/>
-      <c r="L287" s="2"/>
-      <c r="M287" s="2"/>
-      <c r="N287" s="2"/>
-      <c r="O287" s="2"/>
-      <c r="P287" s="2"/>
-      <c r="Q287" s="2"/>
-      <c r="R287" s="2"/>
-      <c r="S287" s="2"/>
-      <c r="T287" s="2"/>
-      <c r="U287" s="2"/>
-      <c r="V287" s="2"/>
-      <c r="W287" s="2"/>
-    </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A288" s="2"/>
-      <c r="B288" s="2"/>
-      <c r="C288" s="2"/>
-      <c r="D288" s="2"/>
-      <c r="E288" s="2"/>
-      <c r="F288" s="2"/>
-      <c r="G288" s="2"/>
-      <c r="H288" s="2"/>
-      <c r="I288" s="2"/>
-      <c r="J288" s="2"/>
-      <c r="K288" s="2"/>
-      <c r="L288" s="2"/>
-      <c r="M288" s="2"/>
-      <c r="N288" s="2"/>
-      <c r="O288" s="2"/>
-      <c r="P288" s="2"/>
-      <c r="Q288" s="2"/>
-      <c r="R288" s="2"/>
-      <c r="S288" s="2"/>
-      <c r="T288" s="2"/>
-      <c r="U288" s="2"/>
-      <c r="V288" s="2"/>
-      <c r="W288" s="2"/>
-    </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A289" s="2"/>
-      <c r="B289" s="2"/>
-      <c r="C289" s="2"/>
-      <c r="D289" s="2"/>
-      <c r="E289" s="2"/>
-      <c r="F289" s="2"/>
-      <c r="G289" s="2"/>
-      <c r="H289" s="2"/>
-      <c r="I289" s="2"/>
-      <c r="J289" s="2"/>
-      <c r="K289" s="2"/>
-      <c r="L289" s="2"/>
-      <c r="M289" s="2"/>
-      <c r="N289" s="2"/>
-      <c r="O289" s="2"/>
-      <c r="P289" s="2"/>
-      <c r="Q289" s="2"/>
-      <c r="R289" s="2"/>
-      <c r="S289" s="2"/>
-      <c r="T289" s="2"/>
-      <c r="U289" s="2"/>
-      <c r="V289" s="2"/>
-      <c r="W289" s="2"/>
-    </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A290" s="2"/>
-      <c r="B290" s="2"/>
-      <c r="C290" s="2"/>
-      <c r="D290" s="2"/>
-      <c r="E290" s="2"/>
-      <c r="F290" s="2"/>
-      <c r="G290" s="2"/>
-      <c r="H290" s="2"/>
-      <c r="I290" s="2"/>
-      <c r="J290" s="2"/>
-      <c r="K290" s="2"/>
-      <c r="L290" s="2"/>
-      <c r="M290" s="2"/>
-      <c r="N290" s="2"/>
-      <c r="O290" s="2"/>
-      <c r="P290" s="2"/>
-      <c r="Q290" s="2"/>
-      <c r="R290" s="2"/>
-      <c r="S290" s="2"/>
-      <c r="T290" s="2"/>
-      <c r="U290" s="2"/>
-      <c r="V290" s="2"/>
-      <c r="W290" s="2"/>
-    </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A291" s="2"/>
-      <c r="B291" s="2"/>
-      <c r="C291" s="2"/>
-      <c r="D291" s="2"/>
-      <c r="E291" s="2"/>
-      <c r="F291" s="2"/>
-      <c r="G291" s="2"/>
-      <c r="H291" s="2"/>
-      <c r="I291" s="2"/>
-      <c r="J291" s="2"/>
-      <c r="K291" s="2"/>
-      <c r="L291" s="2"/>
-      <c r="M291" s="2"/>
-      <c r="N291" s="2"/>
-      <c r="O291" s="2"/>
-      <c r="P291" s="2"/>
-      <c r="Q291" s="2"/>
-      <c r="R291" s="2"/>
-      <c r="S291" s="2"/>
-      <c r="T291" s="2"/>
-      <c r="U291" s="2"/>
-      <c r="V291" s="2"/>
-      <c r="W291" s="2"/>
-    </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A292" s="2"/>
-      <c r="B292" s="2"/>
-      <c r="C292" s="2"/>
-      <c r="D292" s="2"/>
-      <c r="E292" s="2"/>
-      <c r="F292" s="2"/>
-      <c r="G292" s="2"/>
-      <c r="H292" s="2"/>
-      <c r="I292" s="2"/>
-      <c r="J292" s="2"/>
-      <c r="K292" s="2"/>
-      <c r="L292" s="2"/>
-      <c r="M292" s="2"/>
-      <c r="N292" s="2"/>
-      <c r="O292" s="2"/>
-      <c r="P292" s="2"/>
-      <c r="Q292" s="2"/>
-      <c r="R292" s="2"/>
-      <c r="S292" s="2"/>
-      <c r="T292" s="2"/>
-      <c r="U292" s="2"/>
-      <c r="V292" s="2"/>
-      <c r="W292" s="2"/>
-    </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A293" s="2"/>
-      <c r="B293" s="2"/>
-      <c r="C293" s="2"/>
-      <c r="D293" s="2"/>
-      <c r="E293" s="2"/>
-      <c r="F293" s="2"/>
-      <c r="G293" s="2"/>
-      <c r="H293" s="2"/>
-      <c r="I293" s="2"/>
-      <c r="J293" s="2"/>
-      <c r="K293" s="2"/>
-      <c r="L293" s="2"/>
-      <c r="M293" s="2"/>
-      <c r="N293" s="2"/>
-      <c r="O293" s="2"/>
-      <c r="P293" s="2"/>
-      <c r="Q293" s="2"/>
-      <c r="R293" s="2"/>
-      <c r="S293" s="2"/>
-      <c r="T293" s="2"/>
-      <c r="U293" s="2"/>
-      <c r="V293" s="2"/>
-      <c r="W293" s="2"/>
-    </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A294" s="2"/>
-      <c r="B294" s="2"/>
-      <c r="C294" s="2"/>
-      <c r="D294" s="2"/>
-      <c r="E294" s="2"/>
-      <c r="F294" s="2"/>
-      <c r="G294" s="2"/>
-      <c r="H294" s="2"/>
-      <c r="I294" s="2"/>
-      <c r="J294" s="2"/>
-      <c r="K294" s="2"/>
-      <c r="L294" s="2"/>
-      <c r="M294" s="2"/>
-      <c r="N294" s="2"/>
-      <c r="O294" s="2"/>
-      <c r="P294" s="2"/>
-      <c r="Q294" s="2"/>
-      <c r="R294" s="2"/>
-      <c r="S294" s="2"/>
-      <c r="T294" s="2"/>
-      <c r="U294" s="2"/>
-      <c r="V294" s="2"/>
-      <c r="W294" s="2"/>
-    </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A295" s="2"/>
-      <c r="B295" s="2"/>
-      <c r="C295" s="2"/>
-      <c r="D295" s="2"/>
-      <c r="E295" s="2"/>
-      <c r="F295" s="2"/>
-      <c r="G295" s="2"/>
-      <c r="H295" s="2"/>
-      <c r="I295" s="2"/>
-      <c r="J295" s="2"/>
-      <c r="K295" s="2"/>
-      <c r="L295" s="2"/>
-      <c r="M295" s="2"/>
-      <c r="N295" s="2"/>
-      <c r="O295" s="2"/>
-      <c r="P295" s="2"/>
-      <c r="Q295" s="2"/>
-      <c r="R295" s="2"/>
-      <c r="S295" s="2"/>
-      <c r="T295" s="2"/>
-      <c r="U295" s="2"/>
-      <c r="V295" s="2"/>
-      <c r="W295" s="2"/>
-    </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A296" s="2"/>
-      <c r="B296" s="2"/>
-      <c r="C296" s="2"/>
-      <c r="D296" s="2"/>
-      <c r="E296" s="2"/>
-      <c r="F296" s="2"/>
-      <c r="G296" s="2"/>
-      <c r="H296" s="2"/>
-      <c r="I296" s="2"/>
-      <c r="J296" s="2"/>
-      <c r="K296" s="2"/>
-      <c r="L296" s="2"/>
-      <c r="M296" s="2"/>
-      <c r="N296" s="2"/>
-      <c r="O296" s="2"/>
-      <c r="P296" s="2"/>
-      <c r="Q296" s="2"/>
-      <c r="R296" s="2"/>
-      <c r="S296" s="2"/>
-      <c r="T296" s="2"/>
-      <c r="U296" s="2"/>
-      <c r="V296" s="2"/>
-      <c r="W296" s="2"/>
-    </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A297" s="2"/>
-      <c r="B297" s="2"/>
-      <c r="C297" s="2"/>
-      <c r="D297" s="2"/>
-      <c r="E297" s="2"/>
-      <c r="F297" s="2"/>
-      <c r="G297" s="2"/>
-      <c r="H297" s="2"/>
-      <c r="I297" s="2"/>
-      <c r="J297" s="2"/>
-      <c r="K297" s="2"/>
-      <c r="L297" s="2"/>
-      <c r="M297" s="2"/>
-      <c r="N297" s="2"/>
-      <c r="O297" s="2"/>
-      <c r="P297" s="2"/>
-      <c r="Q297" s="2"/>
-      <c r="R297" s="2"/>
-      <c r="S297" s="2"/>
-      <c r="T297" s="2"/>
-      <c r="U297" s="2"/>
-      <c r="V297" s="2"/>
-      <c r="W297" s="2"/>
-    </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A298" s="2"/>
-      <c r="B298" s="2"/>
-      <c r="C298" s="2"/>
-      <c r="D298" s="2"/>
-      <c r="E298" s="2"/>
-      <c r="F298" s="2"/>
-      <c r="G298" s="2"/>
-      <c r="H298" s="2"/>
-      <c r="I298" s="2"/>
-      <c r="J298" s="2"/>
-      <c r="K298" s="2"/>
-      <c r="L298" s="2"/>
-      <c r="M298" s="2"/>
-      <c r="N298" s="2"/>
-      <c r="O298" s="2"/>
-      <c r="P298" s="2"/>
-      <c r="Q298" s="2"/>
-      <c r="R298" s="2"/>
-      <c r="S298" s="2"/>
-      <c r="T298" s="2"/>
-      <c r="U298" s="2"/>
-      <c r="V298" s="2"/>
-      <c r="W298" s="2"/>
-    </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A299" s="2"/>
-      <c r="B299" s="2"/>
-      <c r="C299" s="2"/>
-      <c r="D299" s="2"/>
-      <c r="E299" s="2"/>
-      <c r="F299" s="2"/>
-      <c r="G299" s="2"/>
-      <c r="H299" s="2"/>
-      <c r="I299" s="2"/>
-      <c r="J299" s="2"/>
-      <c r="K299" s="2"/>
-      <c r="L299" s="2"/>
-      <c r="M299" s="2"/>
-      <c r="N299" s="2"/>
-      <c r="O299" s="2"/>
-      <c r="P299" s="2"/>
-      <c r="Q299" s="2"/>
-      <c r="R299" s="2"/>
-      <c r="S299" s="2"/>
-      <c r="T299" s="2"/>
-      <c r="U299" s="2"/>
-      <c r="V299" s="2"/>
-      <c r="W299" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
